--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0BF0D2-0A98-41A8-BA8A-F811284A7575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CC598-F106-4570-9EBD-0AB63838299B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="19665" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
@@ -291,11 +291,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -625,7 +625,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,10 +635,10 @@
     <col min="3" max="3" width="9.5" style="9" customWidth="1"/>
     <col min="4" max="4" width="9" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="8" customWidth="1"/>
-    <col min="8" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -672,22 +672,22 @@
         <v>601318</v>
       </c>
       <c r="C2" s="9">
-        <v>62.3</v>
+        <v>53.25</v>
       </c>
       <c r="D2" s="10">
         <v>500</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E26" si="0">C2*D2</f>
-        <v>31150</v>
-      </c>
-      <c r="F2" s="7">
+        <v>26625</v>
+      </c>
+      <c r="F2" s="8">
         <f>E2/E27</f>
-        <v>4.5286248196146246E-2</v>
+        <v>4.3964184009883646E-2</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(F2:F4)</f>
-        <v>0.10354050069115683</v>
+        <v>0.10307846711049716</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -698,18 +698,18 @@
         <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>37.700000000000003</v>
+        <v>33.24</v>
       </c>
       <c r="D3" s="10">
         <v>500</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>18850</v>
-      </c>
-      <c r="F3" s="7">
+        <v>16620</v>
+      </c>
+      <c r="F3" s="8">
         <f>E3/E27</f>
-        <v>2.7404358860268273E-2</v>
+        <v>2.7443558243916102E-2</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -721,18 +721,18 @@
         <v>11</v>
       </c>
       <c r="C4" s="9">
-        <v>53.05</v>
+        <v>47.95</v>
       </c>
       <c r="D4" s="10">
         <v>400</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>21220</v>
-      </c>
-      <c r="F4" s="7">
+        <v>19180</v>
+      </c>
+      <c r="F4" s="8">
         <f>E4/E27</f>
-        <v>3.0849893634742321E-2</v>
+        <v>3.1670724856697405E-2</v>
       </c>
       <c r="G4" s="14"/>
     </row>
@@ -744,22 +744,22 @@
         <v>13</v>
       </c>
       <c r="C5" s="9">
-        <v>27.94</v>
+        <v>26.53</v>
       </c>
       <c r="D5" s="10">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>39116</v>
-      </c>
-      <c r="F5" s="7">
+        <v>31836</v>
+      </c>
+      <c r="F5" s="8">
         <f>E5/E27</f>
-        <v>5.686731571237421E-2</v>
+        <v>5.256877979863496E-2</v>
       </c>
       <c r="G5" s="13">
         <f>SUM(F5:F12)</f>
-        <v>0.41635609604801821</v>
+        <v>0.41990559548063056</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -770,18 +770,18 @@
         <v>15</v>
       </c>
       <c r="C6" s="9">
-        <v>36</v>
+        <v>30.75</v>
       </c>
       <c r="D6" s="10">
         <v>1000</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="F6" s="7">
+        <v>30750</v>
+      </c>
+      <c r="F6" s="8">
         <f>E6/E27</f>
-        <v>5.2337237080618458E-2</v>
+        <v>5.0775536462119138E-2</v>
       </c>
       <c r="G6" s="14"/>
     </row>
@@ -793,18 +793,18 @@
         <v>17</v>
       </c>
       <c r="C7" s="9">
-        <v>115.11</v>
+        <v>101.47</v>
       </c>
       <c r="D7" s="10">
         <v>300</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>34533</v>
-      </c>
-      <c r="F7" s="7">
+        <v>30441</v>
+      </c>
+      <c r="F7" s="8">
         <f>E7/E27</f>
-        <v>5.0204494669583252E-2</v>
+        <v>5.0265304242060771E-2</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -816,18 +816,18 @@
         <v>19</v>
       </c>
       <c r="C8" s="9">
-        <v>18.149999999999999</v>
+        <v>15.25</v>
       </c>
       <c r="D8" s="10">
         <v>900</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>16334.999999999998</v>
-      </c>
-      <c r="F8" s="7">
+        <v>13725</v>
+      </c>
+      <c r="F8" s="8">
         <f>E8/E27</f>
-        <v>2.3748021325330621E-2</v>
+        <v>2.2663227250165372E-2</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -839,18 +839,18 @@
         <v>21</v>
       </c>
       <c r="C9" s="9">
-        <v>36.14</v>
+        <v>30.42</v>
       </c>
       <c r="D9" s="10">
         <v>1300</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>46982</v>
-      </c>
-      <c r="F9" s="7">
+        <v>39546</v>
+      </c>
+      <c r="F9" s="8">
         <f>E9/E27</f>
-        <v>6.8303002014489342E-2</v>
+        <v>6.5299816745722397E-2</v>
       </c>
       <c r="G9" s="14"/>
     </row>
@@ -862,18 +862,18 @@
         <v>23</v>
       </c>
       <c r="C10" s="9">
-        <v>43.13</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="D10" s="10">
         <v>1240</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>53481.200000000004</v>
-      </c>
-      <c r="F10" s="7">
+        <v>43511.600000000006</v>
+      </c>
+      <c r="F10" s="8">
         <f>E10/E27</f>
-        <v>7.7751617882110338E-2</v>
+        <v>7.1847962026833939E-2</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -885,18 +885,18 @@
         <v>25</v>
       </c>
       <c r="C11" s="9">
-        <v>30.49</v>
+        <v>28.8</v>
       </c>
       <c r="D11" s="10">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>21343</v>
-      </c>
-      <c r="F11" s="7">
+        <v>23040</v>
+      </c>
+      <c r="F11" s="8">
         <f>E11/E27</f>
-        <v>3.1028712528101101E-2</v>
+        <v>3.8044499515031707E-2</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -908,18 +908,18 @@
         <v>27</v>
       </c>
       <c r="C12" s="9">
-        <v>35.090000000000003</v>
+        <v>37.68</v>
       </c>
       <c r="D12" s="10">
         <v>1100</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>38599.000000000007</v>
-      </c>
-      <c r="F12" s="7">
+        <v>41448</v>
+      </c>
+      <c r="F12" s="8">
         <f>E12/E27</f>
-        <v>5.6115694835410894E-2</v>
+        <v>6.8440469440062254E-2</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -931,22 +931,22 @@
         <v>29</v>
       </c>
       <c r="C13" s="9">
-        <v>201.47</v>
+        <v>171</v>
       </c>
       <c r="D13" s="10">
         <v>200</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>40294</v>
-      </c>
-      <c r="F13" s="7">
+        <v>34200</v>
+      </c>
+      <c r="F13" s="8">
         <f>E13/E27</f>
-        <v>5.8579906414623337E-2</v>
+        <v>5.647230396762519E-2</v>
       </c>
       <c r="G13" s="13">
         <f>SUM(F13:F15)</f>
-        <v>0.15460129071186468</v>
+        <v>0.1390919451670441</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -957,18 +957,18 @@
         <v>31</v>
       </c>
       <c r="C14" s="9">
-        <v>226.6</v>
+        <v>185.35</v>
       </c>
       <c r="D14" s="10">
         <v>100</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>22660</v>
-      </c>
-      <c r="F14" s="7">
+        <v>18535</v>
+      </c>
+      <c r="F14" s="8">
         <f>E14/E27</f>
-        <v>3.2943383117967059E-2</v>
+        <v>3.0605677018711488E-2</v>
       </c>
       <c r="G14" s="14"/>
     </row>
@@ -980,18 +980,18 @@
         <v>33</v>
       </c>
       <c r="C15" s="9">
-        <v>433.88</v>
+        <v>315</v>
       </c>
       <c r="D15" s="10">
         <v>100</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>43388</v>
-      </c>
-      <c r="F15" s="7">
+        <v>31500</v>
+      </c>
+      <c r="F15" s="8">
         <f>E15/E27</f>
-        <v>6.3078001179274271E-2</v>
+        <v>5.201396418070741E-2</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -1003,22 +1003,22 @@
         <v>35</v>
       </c>
       <c r="C16" s="9">
-        <v>19.96</v>
+        <v>15.9</v>
       </c>
       <c r="D16" s="10">
-        <v>1168</v>
+        <v>1268</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>23313.280000000002</v>
-      </c>
-      <c r="F16" s="7">
+        <v>20161.2</v>
+      </c>
+      <c r="F16" s="8">
         <f>E16/E27</f>
-        <v>3.3893129513523357E-2</v>
+        <v>3.3290918560002485E-2</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(F16:F20)</f>
-        <v>0.19633046766606949</v>
+        <v>0.2061093785966005</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1029,18 +1029,18 @@
         <v>37</v>
       </c>
       <c r="C17" s="9">
-        <v>36.450000000000003</v>
+        <v>32.75</v>
       </c>
       <c r="D17" s="10">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>25515.000000000004</v>
-      </c>
-      <c r="F17" s="7">
+        <v>26200</v>
+      </c>
+      <c r="F17" s="8">
         <f>E17/E27</f>
-        <v>3.7094016780888334E-2</v>
+        <v>4.3262408302683623E-2</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -1052,18 +1052,18 @@
         <v>39</v>
       </c>
       <c r="C18" s="9">
-        <v>31.97</v>
+        <v>25.54</v>
       </c>
       <c r="D18" s="10">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>25576</v>
-      </c>
-      <c r="F18" s="7">
+        <v>25540</v>
+      </c>
+      <c r="F18" s="8">
         <f>E18/E27</f>
-        <v>3.7182699321497155E-2</v>
+        <v>4.2172591910325949E-2</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -1075,18 +1075,18 @@
         <v>41</v>
       </c>
       <c r="C19" s="9">
-        <v>37.520000000000003</v>
+        <v>29.51</v>
       </c>
       <c r="D19" s="10">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>22512.000000000004</v>
-      </c>
-      <c r="F19" s="7">
+        <v>20657</v>
+      </c>
+      <c r="F19" s="8">
         <f>E19/E27</f>
-        <v>3.2728218921080077E-2</v>
+        <v>3.4109601843837239E-2</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -1098,18 +1098,18 @@
         <v>43</v>
       </c>
       <c r="C20" s="9">
-        <v>54.47</v>
+        <v>46.09</v>
       </c>
       <c r="D20" s="10">
         <v>700</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>38129</v>
-      </c>
-      <c r="F20" s="7">
+        <v>32263.000000000004</v>
+      </c>
+      <c r="F20" s="8">
         <f>E20/E27</f>
-        <v>5.5432403129080585E-2</v>
+        <v>5.3273857979751219E-2</v>
       </c>
       <c r="G20" s="14"/>
     </row>
@@ -1121,22 +1121,22 @@
         <v>45</v>
       </c>
       <c r="C21" s="9">
-        <v>50.99</v>
+        <v>47.56</v>
       </c>
       <c r="D21" s="10">
         <v>500</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>25495</v>
-      </c>
-      <c r="F21" s="7">
+        <v>23780</v>
+      </c>
+      <c r="F21" s="8">
         <f>E21/E27</f>
-        <v>3.7064940538065763E-2</v>
+        <v>3.9266414864038798E-2</v>
       </c>
       <c r="G21" s="13">
         <f>SUM(F21:F22)</f>
-        <v>7.7111649777585639E-2</v>
+        <v>7.7340636644316618E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1147,18 +1147,18 @@
         <v>47</v>
       </c>
       <c r="C22" s="9">
-        <v>45.91</v>
+        <v>38.43</v>
       </c>
       <c r="D22" s="10">
         <v>600</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>27545.999999999996</v>
-      </c>
-      <c r="F22" s="7">
+        <v>23058</v>
+      </c>
+      <c r="F22" s="8">
         <f>E22/E27</f>
-        <v>4.0046709239519883E-2</v>
+        <v>3.8074221780277827E-2</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -1170,22 +1170,22 @@
         <v>49</v>
       </c>
       <c r="C23" s="9">
-        <v>281.08999999999997</v>
+        <v>258.01</v>
       </c>
       <c r="D23" s="10">
         <v>100</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>28108.999999999996</v>
-      </c>
-      <c r="F23" s="7">
+        <v>25801</v>
+      </c>
+      <c r="F23" s="8">
         <f>E23/E27</f>
-        <v>4.086520547497511E-2</v>
-      </c>
-      <c r="G23" s="7">
+        <v>4.2603564756394666E-2</v>
+      </c>
+      <c r="G23" s="8">
         <f>F23</f>
-        <v>4.086520547497511E-2</v>
+        <v>4.2603564756394666E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1196,22 +1196,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="9">
-        <v>1.3779999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="D24" s="10">
         <v>2200</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>3031.6</v>
-      </c>
-      <c r="F24" s="7">
+        <v>2642.2000000000003</v>
+      </c>
+      <c r="F24" s="8">
         <f>E24/E27</f>
-        <v>4.4073768870445248E-3</v>
+        <v>4.362898290738576E-3</v>
       </c>
       <c r="G24" s="13">
         <f>SUM(F24:F26)</f>
-        <v>1.1194789630330174E-2</v>
+        <v>1.1870412244516491E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1222,18 +1222,18 @@
         <v>53</v>
       </c>
       <c r="C25" s="9">
-        <v>5.1130000000000004</v>
+        <v>4.9059999999999997</v>
       </c>
       <c r="D25" s="10">
         <v>700</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>3579.1000000000004</v>
-      </c>
-      <c r="F25" s="7">
+        <v>3434.2</v>
+      </c>
+      <c r="F25" s="8">
         <f>E25/E27</f>
-        <v>5.2033390343122644E-3</v>
+        <v>5.6706779615677896E-3</v>
       </c>
       <c r="G25" s="14"/>
     </row>
@@ -1245,18 +1245,18 @@
         <v>55</v>
       </c>
       <c r="C26" s="9">
-        <v>3.6320000000000001</v>
+        <v>3.7080000000000002</v>
       </c>
       <c r="D26" s="10">
         <v>300</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>1089.6000000000001</v>
-      </c>
-      <c r="F26" s="7">
+        <v>1112.4000000000001</v>
+      </c>
+      <c r="F26" s="8">
         <f>E26/E27</f>
-        <v>1.5840737089733855E-3</v>
+        <v>1.8368359922101248E-3</v>
       </c>
       <c r="G26" s="14"/>
     </row>
@@ -1266,9 +1266,9 @@
       </c>
       <c r="E27" s="9">
         <f>SUM(E2:E26)</f>
-        <v>687846.77999999991</v>
-      </c>
-      <c r="G27" s="7">
+        <v>605606.6</v>
+      </c>
+      <c r="G27" s="8">
         <f>SUM(G2:G26)</f>
         <v>1.0000000000000002</v>
       </c>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CC598-F106-4570-9EBD-0AB63838299B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="19665" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19485" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>股票名称</t>
   </si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>510300</t>
+  </si>
+  <si>
+    <t>100ETF</t>
+  </si>
+  <si>
+    <t>512910</t>
   </si>
   <si>
     <t>黄金ETF</t>
@@ -196,12 +196,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +214,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +371,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -263,13 +590,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -279,57 +848,95 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -616,674 +1223,677 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>601318</v>
       </c>
-      <c r="C2" s="9">
-        <v>53.25</v>
-      </c>
-      <c r="D2" s="10">
-        <v>500</v>
-      </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E26" si="0">C2*D2</f>
-        <v>26625</v>
-      </c>
-      <c r="F2" s="8">
-        <f>E2/E27</f>
-        <v>4.3964184009883646E-2</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="C2" s="3">
+        <v>49.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>300</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E27" si="0">C2*D2</f>
+        <v>14970</v>
+      </c>
+      <c r="F2" s="5">
+        <f>E2/E28</f>
+        <v>0.0282741813661246</v>
+      </c>
+      <c r="G2" s="12">
         <f>SUM(F2:F4)</f>
-        <v>0.10307846711049716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.0282741813661246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
-        <v>33.24</v>
-      </c>
-      <c r="D3" s="10">
-        <v>500</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" si="0"/>
-        <v>16620</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3/E27</f>
-        <v>2.7443558243916102E-2</v>
-      </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C3" s="3">
+        <v>32.3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>E3/E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
-        <v>47.95</v>
-      </c>
-      <c r="D4" s="10">
-        <v>400</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="0"/>
-        <v>19180</v>
-      </c>
-      <c r="F4" s="8">
-        <f>E4/E27</f>
-        <v>3.1670724856697405E-2</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C4" s="3">
+        <v>48.96</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>E4/E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9">
-        <v>26.53</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="3">
+        <v>32.55</v>
+      </c>
+      <c r="D5" s="4">
         <v>1200</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>31836</v>
-      </c>
-      <c r="F5" s="8">
-        <f>E5/E27</f>
-        <v>5.256877979863496E-2</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>39060</v>
+      </c>
+      <c r="F5" s="5">
+        <f>E5/E28</f>
+        <v>0.0737735153080044</v>
+      </c>
+      <c r="G5" s="5">
         <f>SUM(F5:F12)</f>
-        <v>0.41990559548063056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.451765512033714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
-        <v>30.75</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="3">
+        <v>34.37</v>
+      </c>
+      <c r="D6" s="4">
         <v>1000</v>
       </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>30750</v>
-      </c>
-      <c r="F6" s="8">
-        <f>E6/E27</f>
-        <v>5.0775536462119138E-2</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>34370</v>
+      </c>
+      <c r="F6" s="5">
+        <f>E6/E28</f>
+        <v>0.0649154050470075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
-        <v>101.47</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="3">
+        <v>88.69</v>
+      </c>
+      <c r="D7" s="4">
         <v>300</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>30441</v>
-      </c>
-      <c r="F7" s="8">
-        <f>E7/E27</f>
-        <v>5.0265304242060771E-2</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>26607</v>
+      </c>
+      <c r="F7" s="5">
+        <f>E7/E28</f>
+        <v>0.0502532494060439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9">
-        <v>15.25</v>
-      </c>
-      <c r="D8" s="10">
-        <v>900</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>13725</v>
-      </c>
-      <c r="F8" s="8">
-        <f>E8/E27</f>
-        <v>2.2663227250165372E-2</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="3">
+        <v>16.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>8300</v>
+      </c>
+      <c r="F8" s="5">
+        <f>E8/E28</f>
+        <v>0.0156763998222334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9">
-        <v>30.42</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="3">
+        <v>29.46</v>
+      </c>
+      <c r="D9" s="4">
         <v>1300</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>39546</v>
-      </c>
-      <c r="F9" s="8">
-        <f>E9/E27</f>
-        <v>6.5299816745722397E-2</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>38298</v>
+      </c>
+      <c r="F9" s="5">
+        <f>E9/E28</f>
+        <v>0.0723343084809512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="3">
+        <v>30.75</v>
+      </c>
+      <c r="D10" s="4">
         <v>1240</v>
       </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>43511.600000000006</v>
-      </c>
-      <c r="F10" s="8">
-        <f>E10/E27</f>
-        <v>7.1847962026833939E-2</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>38130</v>
+      </c>
+      <c r="F10" s="5">
+        <f>E10/E28</f>
+        <v>0.0720170030387662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9">
-        <v>28.8</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="3">
+        <v>25.38</v>
+      </c>
+      <c r="D11" s="4">
         <v>800</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>23040</v>
-      </c>
-      <c r="F11" s="8">
-        <f>E11/E27</f>
-        <v>3.8044499515031707E-2</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>20304</v>
+      </c>
+      <c r="F11" s="5">
+        <f>E11/E28</f>
+        <v>0.0383486291554972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9">
-        <v>37.68</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="3">
+        <v>31.02</v>
+      </c>
+      <c r="D12" s="4">
         <v>1100</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>41448</v>
-      </c>
-      <c r="F12" s="8">
-        <f>E12/E27</f>
-        <v>6.8440469440062254E-2</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>34122</v>
+      </c>
+      <c r="F12" s="5">
+        <f>E12/E28</f>
+        <v>0.0644470017752106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="9">
-        <v>171</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="3">
+        <v>167.54</v>
+      </c>
+      <c r="D13" s="4">
         <v>200</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>34200</v>
-      </c>
-      <c r="F13" s="8">
-        <f>E13/E27</f>
-        <v>5.647230396762519E-2</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>33508</v>
+      </c>
+      <c r="F13" s="5">
+        <f>E13/E28</f>
+        <v>0.0632873259329394</v>
+      </c>
+      <c r="G13" s="5">
         <f>SUM(F13:F15)</f>
-        <v>0.1390919451670441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.14781145181783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9">
-        <v>185.35</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="3">
+        <v>170</v>
+      </c>
+      <c r="D14" s="4">
         <v>100</v>
       </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>18535</v>
-      </c>
-      <c r="F14" s="8">
-        <f>E14/E27</f>
-        <v>3.0605677018711488E-2</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="F14" s="5">
+        <f>E14/E28</f>
+        <v>0.0321082887925262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9">
-        <v>315</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="3">
+        <v>277.52</v>
+      </c>
+      <c r="D15" s="4">
         <v>100</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>31500</v>
-      </c>
-      <c r="F15" s="8">
-        <f>E15/E27</f>
-        <v>5.201396418070741E-2</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>27752</v>
+      </c>
+      <c r="F15" s="5">
+        <f>E15/E28</f>
+        <v>0.052415837092364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9">
-        <v>15.9</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1268</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>20161.2</v>
-      </c>
-      <c r="F16" s="8">
-        <f>E16/E27</f>
-        <v>3.3290918560002485E-2</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="C16" s="3">
+        <v>13.85</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1468</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>20331.8</v>
+      </c>
+      <c r="F16" s="5">
+        <f>E16/E28</f>
+        <v>0.0384011356512874</v>
+      </c>
+      <c r="G16" s="5">
         <f>SUM(F16:F20)</f>
-        <v>0.2061093785966005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.247180561717514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9">
-        <v>32.75</v>
-      </c>
-      <c r="D17" s="10">
-        <v>800</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>26200</v>
-      </c>
-      <c r="F17" s="8">
-        <f>E17/E27</f>
-        <v>4.3262408302683623E-2</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C17" s="3">
+        <v>34.01</v>
+      </c>
+      <c r="D17" s="4">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>30609</v>
+      </c>
+      <c r="F17" s="5">
+        <f>E17/E28</f>
+        <v>0.0578119183323786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9">
-        <v>25.54</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
-        <v>25540</v>
-      </c>
-      <c r="F18" s="8">
-        <f>E18/E27</f>
-        <v>4.2172591910325949E-2</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>31330</v>
+      </c>
+      <c r="F18" s="5">
+        <f>E18/E28</f>
+        <v>0.0591736875217557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9">
-        <v>29.51</v>
-      </c>
-      <c r="D19" s="10">
-        <v>700</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>20657</v>
-      </c>
-      <c r="F19" s="8">
-        <f>E19/E27</f>
-        <v>3.4109601843837239E-2</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="3">
+        <v>25.69</v>
+      </c>
+      <c r="D19" s="4">
+        <v>800</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>20552</v>
+      </c>
+      <c r="F19" s="5">
+        <f>E19/E28</f>
+        <v>0.0388170324272941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9">
-        <v>46.09</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="3">
+        <v>40.07</v>
+      </c>
+      <c r="D20" s="4">
         <v>700</v>
       </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
-        <v>32263.000000000004</v>
-      </c>
-      <c r="F20" s="8">
-        <f>E20/E27</f>
-        <v>5.3273857979751219E-2</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>28049</v>
+      </c>
+      <c r="F20" s="5">
+        <f>E20/E28</f>
+        <v>0.0529767877847982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="9">
-        <v>47.56</v>
-      </c>
-      <c r="D21" s="10">
-        <v>500</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
-        <v>23780</v>
-      </c>
-      <c r="F21" s="8">
-        <f>E21/E27</f>
-        <v>3.9266414864038798E-2</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="C21" s="3">
+        <v>41.1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>12330</v>
+      </c>
+      <c r="F21" s="5">
+        <f>E21/E28</f>
+        <v>0.0232879529889323</v>
+      </c>
+      <c r="G21" s="5">
         <f>SUM(F21:F22)</f>
-        <v>7.7340636644316618E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.0367734342817933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="9">
-        <v>38.43</v>
-      </c>
-      <c r="D22" s="10">
-        <v>600</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>23058</v>
-      </c>
-      <c r="F22" s="8">
-        <f>E22/E27</f>
-        <v>3.8074221780277827E-2</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="3">
+        <v>35.7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>7140</v>
+      </c>
+      <c r="F22" s="5">
+        <f>E22/E28</f>
+        <v>0.013485481292861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="9">
-        <v>258.01</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="3">
+        <v>228.29</v>
+      </c>
+      <c r="D23" s="4">
         <v>100</v>
       </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>25801</v>
-      </c>
-      <c r="F23" s="8">
-        <f>E23/E27</f>
-        <v>4.2603564756394666E-2</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>22829</v>
+      </c>
+      <c r="F23" s="5">
+        <f>E23/E28</f>
+        <v>0.0431176544026224</v>
+      </c>
+      <c r="G23" s="5">
         <f>F23</f>
-        <v>4.2603564756394666E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.0431176544026224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="C24" s="3">
+        <v>1.111</v>
+      </c>
+      <c r="D24" s="4">
         <v>2200</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>2642.2000000000003</v>
-      </c>
-      <c r="F24" s="8">
-        <f>E24/E27</f>
-        <v>4.362898290738576E-3</v>
-      </c>
-      <c r="G24" s="13">
-        <f>SUM(F24:F26)</f>
-        <v>1.1870412244516491E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>2444.2</v>
+      </c>
+      <c r="F24" s="5">
+        <f>E24/E28</f>
+        <v>0.00461641643921721</v>
+      </c>
+      <c r="G24" s="5">
+        <f>SUM(F24:F27)</f>
+        <v>0.0450772043804016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9">
-        <v>4.9059999999999997</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C25" s="3">
+        <v>4.879</v>
+      </c>
+      <c r="D25" s="4">
         <v>700</v>
       </c>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>3434.2</v>
-      </c>
-      <c r="F25" s="8">
-        <f>E25/E27</f>
-        <v>5.6706779615677896E-3</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>3415.3</v>
+      </c>
+      <c r="F25" s="5">
+        <f>E25/E28</f>
+        <v>0.00645055521841852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="D26" s="10">
-        <v>300</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="0"/>
-        <v>1112.4000000000001</v>
-      </c>
-      <c r="F26" s="8">
-        <f>E26/E27</f>
-        <v>1.8368359922101248E-3</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="3">
+        <v>1.328</v>
+      </c>
+      <c r="D26" s="4">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>664</v>
+      </c>
+      <c r="F26" s="5">
+        <f>E26/E28</f>
+        <v>0.00125411198577867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="9">
-        <f>SUM(E2:E26)</f>
-        <v>605606.6</v>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G2:G26)</f>
-        <v>1.0000000000000002</v>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4700</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>17343</v>
+      </c>
+      <c r="F27" s="5">
+        <f>E27/E28</f>
+        <v>0.0327561207369872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="3">
+        <f>SUM(E2:E27)</f>
+        <v>529458.3</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(G2:G27)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G12"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G24:G27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="个人持仓" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -34,13 +34,6 @@
       <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,7 +95,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +148,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -551,23 +550,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
-    <col width="9" customWidth="1" style="24" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
-    <col width="9.875" customWidth="1" style="19" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="23"/>
-    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
+    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
+    <col width="9" customWidth="1" style="26" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="22" min="6" max="6"/>
+    <col width="9.875" customWidth="1" style="21" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="26"/>
+    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -581,17 +580,17 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
@@ -616,21 +615,21 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="23" t="n">
-        <v>49.97</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="25" t="n">
+        <v>51.39</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="25">
         <f>C2*D2</f>
         <v/>
       </c>
-      <c r="F2" s="20">
-        <f>E2/E26</f>
-        <v/>
-      </c>
-      <c r="G2" s="22">
+      <c r="F2" s="22">
+        <f>E2/E29</f>
+        <v/>
+      </c>
+      <c r="G2" s="24">
         <f>SUM(F2:F2)</f>
         <v/>
       </c>
@@ -646,21 +645,21 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C3" s="23" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="25" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D3" s="26" t="n">
         <v>1000</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="25">
         <f>C3*D3</f>
         <v/>
       </c>
-      <c r="F3" s="20">
-        <f>E3/E26</f>
-        <v/>
-      </c>
-      <c r="G3" s="20">
+      <c r="F3" s="22">
+        <f>E3/E29</f>
+        <v/>
+      </c>
+      <c r="G3" s="22">
         <f>SUM(F3:F9)</f>
         <v/>
       </c>
@@ -676,18 +675,18 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C4" s="23" t="n">
-        <v>37.89</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="25" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="D4" s="26" t="n">
         <v>600</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="25">
         <f>C4*D4</f>
         <v/>
       </c>
-      <c r="F4" s="20">
-        <f>E4/E26</f>
+      <c r="F4" s="22">
+        <f>E4/E29</f>
         <v/>
       </c>
     </row>
@@ -702,18 +701,18 @@
           <t>000538</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n">
-        <v>90.28</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="25" t="n">
+        <v>90.54000000000001</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <f>C5*D5</f>
         <v/>
       </c>
-      <c r="F5" s="20">
-        <f>E5/E26</f>
+      <c r="F5" s="22">
+        <f>E5/E29</f>
         <v/>
       </c>
     </row>
@@ -728,18 +727,18 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="25" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>800</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="25">
         <f>C6*D6</f>
         <v/>
       </c>
-      <c r="F6" s="20">
-        <f>E6/E26</f>
+      <c r="F6" s="22">
+        <f>E6/E29</f>
         <v/>
       </c>
     </row>
@@ -754,18 +753,18 @@
           <t>000963</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="25" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>640</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="25">
         <f>C7*D7</f>
         <v/>
       </c>
-      <c r="F7" s="20">
-        <f>E7/E26</f>
+      <c r="F7" s="22">
+        <f>E7/E29</f>
         <v/>
       </c>
     </row>
@@ -780,18 +779,18 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="25" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>500</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="25">
         <f>C8*D8</f>
         <v/>
       </c>
-      <c r="F8" s="20">
-        <f>E8/E26</f>
+      <c r="F8" s="22">
+        <f>E8/E29</f>
         <v/>
       </c>
     </row>
@@ -806,18 +805,18 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="25" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="D9" s="26" t="n">
         <v>900</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="25">
         <f>C9*D9</f>
         <v/>
       </c>
-      <c r="F9" s="20">
-        <f>E9/E26</f>
+      <c r="F9" s="22">
+        <f>E9/E29</f>
         <v/>
       </c>
     </row>
@@ -832,21 +831,21 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C10" s="23" t="n">
-        <v>156.35</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="25" t="n">
+        <v>169</v>
+      </c>
+      <c r="D10" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="25">
         <f>C10*D10</f>
         <v/>
       </c>
-      <c r="F10" s="20">
-        <f>E10/E26</f>
-        <v/>
-      </c>
-      <c r="G10" s="21">
+      <c r="F10" s="22">
+        <f>E10/E29</f>
+        <v/>
+      </c>
+      <c r="G10" s="23">
         <f>SUM(F10:F13)</f>
         <v/>
       </c>
@@ -862,18 +861,18 @@
           <t>000858</t>
         </is>
       </c>
-      <c r="C11" s="23" t="n">
-        <v>198.38</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="25" t="n">
+        <v>193.19</v>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="25">
         <f>C11*D11</f>
         <v/>
       </c>
-      <c r="F11" s="20">
-        <f>E11/E26</f>
+      <c r="F11" s="22">
+        <f>E11/E29</f>
         <v/>
       </c>
     </row>
@@ -888,18 +887,18 @@
           <t>000568</t>
         </is>
       </c>
-      <c r="C12" s="23" t="n">
-        <v>216.31</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="25" t="n">
+        <v>220.79</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="25">
         <f>C12*D12</f>
         <v/>
       </c>
-      <c r="F12" s="20">
-        <f>E12/E26</f>
+      <c r="F12" s="22">
+        <f>E12/E29</f>
         <v/>
       </c>
     </row>
@@ -914,18 +913,18 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C13" s="23" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>8400</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="25">
         <f>C13*D13</f>
         <v/>
       </c>
-      <c r="F13" s="20">
-        <f>E13/E26</f>
+      <c r="F13" s="22">
+        <f>E13/E29</f>
         <v/>
       </c>
     </row>
@@ -940,21 +939,21 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C14" s="23" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="25" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="D14" s="26" t="n">
         <v>1468</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="25">
         <f>C14*D14</f>
         <v/>
       </c>
-      <c r="F14" s="20">
-        <f>E14/E26</f>
-        <v/>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="22">
+        <f>E14/E29</f>
+        <v/>
+      </c>
+      <c r="G14" s="22">
         <f>SUM(F14:F18)</f>
         <v/>
       </c>
@@ -970,18 +969,18 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C15" s="23" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="25" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>700</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="25">
         <f>C15*D15</f>
         <v/>
       </c>
-      <c r="F15" s="20">
-        <f>E15/E26</f>
+      <c r="F15" s="22">
+        <f>E15/E29</f>
         <v/>
       </c>
     </row>
@@ -996,18 +995,18 @@
           <t>000895</t>
         </is>
       </c>
-      <c r="C16" s="23" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="25" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="D16" s="26" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="25">
         <f>C16*D16</f>
         <v/>
       </c>
-      <c r="F16" s="20">
-        <f>E16/E26</f>
+      <c r="F16" s="22">
+        <f>E16/E29</f>
         <v/>
       </c>
     </row>
@@ -1022,18 +1021,18 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C17" s="23" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="26" t="n">
         <v>600</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="25">
         <f>C17*D17</f>
         <v/>
       </c>
-      <c r="F17" s="20">
-        <f>E17/E26</f>
+      <c r="F17" s="22">
+        <f>E17/E29</f>
         <v/>
       </c>
     </row>
@@ -1048,18 +1047,18 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C18" s="23" t="n">
-        <v>57</v>
-      </c>
-      <c r="D18" s="24" t="n">
+      <c r="C18" s="25" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="D18" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="25">
         <f>C18*D18</f>
         <v/>
       </c>
-      <c r="F18" s="20">
-        <f>E18/E26</f>
+      <c r="F18" s="22">
+        <f>E18/E29</f>
         <v/>
       </c>
     </row>
@@ -1074,21 +1073,21 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C19" s="23" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="D19" s="24" t="n">
+      <c r="C19" s="25" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="D19" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="25">
         <f>C19*D19</f>
         <v/>
       </c>
-      <c r="F19" s="20">
-        <f>E19/E26</f>
-        <v/>
-      </c>
-      <c r="G19" s="20">
+      <c r="F19" s="22">
+        <f>E19/E29</f>
+        <v/>
+      </c>
+      <c r="G19" s="22">
         <f>SUM(F19:F20)</f>
         <v/>
       </c>
@@ -1104,18 +1103,18 @@
           <t>002508</t>
         </is>
       </c>
-      <c r="C20" s="23" t="n">
-        <v>34.47</v>
-      </c>
-      <c r="D20" s="24" t="n">
+      <c r="C20" s="25" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D20" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="25">
         <f>C20*D20</f>
         <v/>
       </c>
-      <c r="F20" s="20">
-        <f>E20/E26</f>
+      <c r="F20" s="22">
+        <f>E20/E29</f>
         <v/>
       </c>
     </row>
@@ -1130,21 +1129,21 @@
           <t>688772</t>
         </is>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>43.78</v>
-      </c>
-      <c r="D21" s="24" t="n">
+      <c r="C21" s="1" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="D21" s="26" t="n">
         <v>500</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="25">
         <f>C21*D21</f>
         <v/>
       </c>
-      <c r="F21" s="20">
-        <f>E21/E26</f>
-        <v/>
-      </c>
-      <c r="G21" s="18">
+      <c r="F21" s="22">
+        <f>E21/E29</f>
+        <v/>
+      </c>
+      <c r="G21" s="20">
         <f>F21</f>
         <v/>
       </c>
@@ -1160,125 +1159,215 @@
           <t>601888</t>
         </is>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>206.56</v>
-      </c>
-      <c r="D22" s="24" t="n">
+      <c r="C22" s="1" t="n">
+        <v>208.25</v>
+      </c>
+      <c r="D22" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="25">
         <f>C22*D22</f>
         <v/>
       </c>
-      <c r="F22" s="20">
-        <f>E22/E26</f>
-        <v/>
-      </c>
-      <c r="G22" s="18">
+      <c r="F22" s="22">
+        <f>E22/E29</f>
+        <v/>
+      </c>
+      <c r="G22" s="20">
         <f>F22</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>510300</t>
-        </is>
-      </c>
-      <c r="C23" s="23" t="n">
-        <v>4.554</v>
-      </c>
-      <c r="D23" s="24" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>大族数控</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>301200</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>500</v>
+      </c>
+      <c r="E23" s="25">
         <f>C23*D23</f>
         <v/>
       </c>
-      <c r="F23" s="20">
-        <f>E23/E26</f>
-        <v/>
-      </c>
-      <c r="G23" s="18">
-        <f>SUM(F23:F24)</f>
+      <c r="F23" s="22">
+        <f>E23/E29</f>
+        <v/>
+      </c>
+      <c r="G23" s="20">
+        <f>F23</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>黄金ETF</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>518880</t>
-        </is>
-      </c>
-      <c r="C24" s="23" t="n">
-        <v>3.594</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <v>2800</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>万盛股份</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>603010</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D24" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="25">
         <f>C24*D24</f>
         <v/>
       </c>
-      <c r="F24" s="20">
-        <f>E24/E26</f>
+      <c r="F24" s="22">
+        <f>E24/E29</f>
+        <v/>
+      </c>
+      <c r="G24" s="20">
+        <f>F24</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>山东药玻</t>
         </is>
       </c>
       <c r="B25" s="8" t="inlineStr">
         <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="C25" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="n">
-        <v>5768.7</v>
-      </c>
-      <c r="F25" s="20">
-        <f>E25/E26</f>
-        <v/>
-      </c>
-      <c r="G25" s="18">
-        <f>SUM(F25)</f>
+          <t>600529</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" s="25">
+        <f>C25*D25</f>
+        <v/>
+      </c>
+      <c r="F25" s="22">
+        <f>E25/E29</f>
+        <v/>
+      </c>
+      <c r="G25" s="20">
+        <f>F25</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>300ETF</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C26" s="25" t="n">
+        <v>4.609</v>
+      </c>
+      <c r="D26" s="26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="25">
+        <f>C26*D26</f>
+        <v/>
+      </c>
+      <c r="F26" s="22">
+        <f>E26/E29</f>
+        <v/>
+      </c>
+      <c r="G26" s="20">
+        <f>SUM(F26:F27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C27" s="25" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D27" s="26" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="25">
+        <f>C27*D27</f>
+        <v/>
+      </c>
+      <c r="F27" s="22">
+        <f>E27/E29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="C28" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <v>11845.07</v>
+      </c>
+      <c r="F28" s="22">
+        <f>E28/E29</f>
+        <v/>
+      </c>
+      <c r="G28" s="20">
+        <f>SUM(F28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E26" s="23">
-        <f>SUM(E2:E25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="20">
-        <f>SUM(G2:G25)</f>
+      <c r="E29" s="25">
+        <f>SUM(E2:E28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="22">
+        <f>SUM(G2:G28)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G18"/>
@@ -1295,23 +1384,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
-    <col width="9" customWidth="1" style="24" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
-    <col width="9.875" customWidth="1" style="19" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="20"/>
-    <col width="9" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
+    <col width="9" customWidth="1" style="26" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="22" min="6" max="6"/>
+    <col width="9.875" customWidth="1" style="21" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="23"/>
+    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1325,17 +1414,17 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
@@ -1360,21 +1449,21 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="23" t="n">
-        <v>49.97</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="25" t="n">
+        <v>51.39</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="25">
         <f>C2*D2</f>
         <v/>
       </c>
-      <c r="F2" s="20">
-        <f>E2/E29</f>
-        <v/>
-      </c>
-      <c r="G2" s="22">
+      <c r="F2" s="22">
+        <f>E2/E33</f>
+        <v/>
+      </c>
+      <c r="G2" s="24">
         <f>SUM(F2:F4)</f>
         <v/>
       </c>
@@ -1390,18 +1479,18 @@
           <t>002142</t>
         </is>
       </c>
-      <c r="C3" s="23" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="25" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="D3" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="25">
         <f>C3*D3</f>
         <v/>
       </c>
-      <c r="F3" s="20">
-        <f>E3/E29</f>
+      <c r="F3" s="22">
+        <f>E3/E33</f>
         <v/>
       </c>
     </row>
@@ -1416,18 +1505,18 @@
           <t>600036</t>
         </is>
       </c>
-      <c r="C4" s="23" t="n">
-        <v>49.21</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="25" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="D4" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="25">
         <f>C4*D4</f>
         <v/>
       </c>
-      <c r="F4" s="20">
-        <f>E4/E29</f>
+      <c r="F4" s="22">
+        <f>E4/E33</f>
         <v/>
       </c>
     </row>
@@ -1442,21 +1531,21 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="25" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>1200</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <f>C5*D5</f>
         <v/>
       </c>
-      <c r="F5" s="20">
-        <f>E5/E29</f>
-        <v/>
-      </c>
-      <c r="G5" s="20">
+      <c r="F5" s="22">
+        <f>E5/E33</f>
+        <v/>
+      </c>
+      <c r="G5" s="22">
         <f>SUM(F5:F11)</f>
         <v/>
       </c>
@@ -1472,18 +1561,18 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n">
-        <v>37.89</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="25" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>1000</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="25">
         <f>C6*D6</f>
         <v/>
       </c>
-      <c r="F6" s="20">
-        <f>E6/E29</f>
+      <c r="F6" s="22">
+        <f>E6/E33</f>
         <v/>
       </c>
     </row>
@@ -1498,18 +1587,18 @@
           <t>000538</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n">
-        <v>90.28</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="25" t="n">
+        <v>90.54000000000001</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="25">
         <f>C7*D7</f>
         <v/>
       </c>
-      <c r="F7" s="20">
-        <f>E7/E29</f>
+      <c r="F7" s="22">
+        <f>E7/E33</f>
         <v/>
       </c>
     </row>
@@ -1524,18 +1613,18 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="25" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>1400</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="25">
         <f>C8*D8</f>
         <v/>
       </c>
-      <c r="F8" s="20">
-        <f>E8/E29</f>
+      <c r="F8" s="22">
+        <f>E8/E33</f>
         <v/>
       </c>
     </row>
@@ -1550,18 +1639,18 @@
           <t>000963</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="25" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="D9" s="26" t="n">
         <v>1240</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="25">
         <f>C9*D9</f>
         <v/>
       </c>
-      <c r="F9" s="20">
-        <f>E9/E29</f>
+      <c r="F9" s="22">
+        <f>E9/E33</f>
         <v/>
       </c>
     </row>
@@ -1576,18 +1665,18 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C10" s="23" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="25" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="D10" s="26" t="n">
         <v>800</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="25">
         <f>C10*D10</f>
         <v/>
       </c>
-      <c r="F10" s="20">
-        <f>E10/E29</f>
+      <c r="F10" s="22">
+        <f>E10/E33</f>
         <v/>
       </c>
     </row>
@@ -1602,18 +1691,18 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C11" s="23" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="25" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>1600</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="25">
         <f>C11*D11</f>
         <v/>
       </c>
-      <c r="F11" s="20">
-        <f>E11/E29</f>
+      <c r="F11" s="22">
+        <f>E11/E33</f>
         <v/>
       </c>
     </row>
@@ -1628,21 +1717,21 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C12" s="23" t="n">
-        <v>156.35</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="25" t="n">
+        <v>169</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="25">
         <f>C12*D12</f>
         <v/>
       </c>
-      <c r="F12" s="20">
-        <f>E12/E29</f>
-        <v/>
-      </c>
-      <c r="G12" s="21">
+      <c r="F12" s="22">
+        <f>E12/E33</f>
+        <v/>
+      </c>
+      <c r="G12" s="23">
         <f>SUM(F12:F16)</f>
         <v/>
       </c>
@@ -1658,18 +1747,18 @@
           <t>000568</t>
         </is>
       </c>
-      <c r="C13" s="23" t="n">
-        <v>216.31</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="25" t="n">
+        <v>220.79</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="25">
         <f>C13*D13</f>
         <v/>
       </c>
-      <c r="F13" s="20">
-        <f>E13/E29</f>
+      <c r="F13" s="22">
+        <f>E13/E33</f>
         <v/>
       </c>
     </row>
@@ -1684,18 +1773,18 @@
           <t>000858</t>
         </is>
       </c>
-      <c r="C14" s="23" t="n">
-        <v>198.38</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="25" t="n">
+        <v>193.19</v>
+      </c>
+      <c r="D14" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="25">
         <f>C14*D14</f>
         <v/>
       </c>
-      <c r="F14" s="20">
-        <f>E14/E29</f>
+      <c r="F14" s="22">
+        <f>E14/E33</f>
         <v/>
       </c>
     </row>
@@ -1710,18 +1799,18 @@
           <t>600809</t>
         </is>
       </c>
-      <c r="C15" s="23" t="n">
-        <v>275.15</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="25" t="n">
+        <v>297.27</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="25">
         <f>C15*D15</f>
         <v/>
       </c>
-      <c r="F15" s="20">
-        <f>E15/E29</f>
+      <c r="F15" s="22">
+        <f>E15/E33</f>
         <v/>
       </c>
     </row>
@@ -1736,18 +1825,18 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C16" s="23" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D16" s="26" t="n">
         <v>18600</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="25">
         <f>C16*D16</f>
         <v/>
       </c>
-      <c r="F16" s="20">
-        <f>E16/E29</f>
+      <c r="F16" s="22">
+        <f>E16/E33</f>
         <v/>
       </c>
     </row>
@@ -1762,21 +1851,21 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C17" s="23" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="25" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="D17" s="26" t="n">
         <v>2568</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="25">
         <f>C17*D17</f>
         <v/>
       </c>
-      <c r="F17" s="20">
-        <f>E17/E29</f>
-        <v/>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="22">
+        <f>E17/E33</f>
+        <v/>
+      </c>
+      <c r="G17" s="22">
         <f>SUM(F17:F21)</f>
         <v/>
       </c>
@@ -1792,18 +1881,18 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C18" s="23" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="D18" s="24" t="n">
+      <c r="C18" s="25" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D18" s="26" t="n">
         <v>900</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="25">
         <f>C18*D18</f>
         <v/>
       </c>
-      <c r="F18" s="20">
-        <f>E18/E29</f>
+      <c r="F18" s="22">
+        <f>E18/E33</f>
         <v/>
       </c>
     </row>
@@ -1818,18 +1907,18 @@
           <t>000895</t>
         </is>
       </c>
-      <c r="C19" s="23" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D19" s="24" t="n">
+      <c r="C19" s="25" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="D19" s="26" t="n">
         <v>1300</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="25">
         <f>C19*D19</f>
         <v/>
       </c>
-      <c r="F19" s="20">
-        <f>E19/E29</f>
+      <c r="F19" s="22">
+        <f>E19/E33</f>
         <v/>
       </c>
     </row>
@@ -1844,18 +1933,18 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C20" s="23" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D20" s="24" t="n">
+      <c r="C20" s="25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="26" t="n">
         <v>900</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="25">
         <f>C20*D20</f>
         <v/>
       </c>
-      <c r="F20" s="20">
-        <f>E20/E29</f>
+      <c r="F20" s="22">
+        <f>E20/E33</f>
         <v/>
       </c>
     </row>
@@ -1870,18 +1959,18 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C21" s="23" t="n">
-        <v>57</v>
-      </c>
-      <c r="D21" s="24" t="n">
+      <c r="C21" s="25" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="D21" s="26" t="n">
         <v>700</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="25">
         <f>C21*D21</f>
         <v/>
       </c>
-      <c r="F21" s="20">
-        <f>E21/E29</f>
+      <c r="F21" s="22">
+        <f>E21/E33</f>
         <v/>
       </c>
     </row>
@@ -1896,21 +1985,21 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C22" s="23" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="D22" s="24" t="n">
+      <c r="C22" s="25" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="D22" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="25">
         <f>C22*D22</f>
         <v/>
       </c>
-      <c r="F22" s="20">
-        <f>E22/E29</f>
-        <v/>
-      </c>
-      <c r="G22" s="20">
+      <c r="F22" s="22">
+        <f>E22/E33</f>
+        <v/>
+      </c>
+      <c r="G22" s="22">
         <f>SUM(F22:F23)</f>
         <v/>
       </c>
@@ -1926,18 +2015,18 @@
           <t>002508</t>
         </is>
       </c>
-      <c r="C23" s="23" t="n">
-        <v>34.47</v>
-      </c>
-      <c r="D23" s="24" t="n">
+      <c r="C23" s="25" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D23" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="25">
         <f>C23*D23</f>
         <v/>
       </c>
-      <c r="F23" s="20">
-        <f>E23/E29</f>
+      <c r="F23" s="22">
+        <f>E23/E33</f>
         <v/>
       </c>
     </row>
@@ -1952,151 +2041,271 @@
           <t>601888</t>
         </is>
       </c>
-      <c r="C24" s="23" t="n">
-        <v>206.56</v>
-      </c>
-      <c r="D24" s="24" t="n">
+      <c r="C24" s="25" t="n">
+        <v>208.25</v>
+      </c>
+      <c r="D24" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="25">
         <f>C24*D24</f>
         <v/>
       </c>
-      <c r="F24" s="20">
-        <f>E24/E29</f>
-        <v/>
-      </c>
-      <c r="G24" s="20">
+      <c r="F24" s="22">
+        <f>E24/E33</f>
+        <v/>
+      </c>
+      <c r="G24" s="22">
         <f>F24</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>510300</t>
-        </is>
-      </c>
-      <c r="C25" s="23" t="n">
-        <v>4.554</v>
-      </c>
-      <c r="D25" s="24" t="n">
-        <v>3700</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>珠海冠宇</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>688772</t>
+        </is>
+      </c>
+      <c r="C25" s="25" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>500</v>
+      </c>
+      <c r="E25" s="25">
         <f>C25*D25</f>
         <v/>
       </c>
-      <c r="F25" s="20">
-        <f>E25/E29</f>
-        <v/>
-      </c>
-      <c r="G25" s="18">
-        <f>SUM(F25:F27)</f>
+      <c r="F25" s="22">
+        <f>E25/E33</f>
+        <v/>
+      </c>
+      <c r="G25" s="22">
+        <f>F25</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>100ETF</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>512910</t>
-        </is>
-      </c>
-      <c r="C26" s="23" t="n">
-        <v>1.317</v>
-      </c>
-      <c r="D26" s="24" t="n">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>大族数控</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>301200</t>
+        </is>
+      </c>
+      <c r="C26" s="25" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="D26" s="26" t="n">
         <v>500</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="25">
         <f>C26*D26</f>
         <v/>
       </c>
-      <c r="F26" s="20">
-        <f>E26/E29</f>
+      <c r="F26" s="22">
+        <f>E26/E33</f>
+        <v/>
+      </c>
+      <c r="G26" s="22">
+        <f>F26</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>黄金ETF</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>518880</t>
-        </is>
-      </c>
-      <c r="C27" s="23" t="n">
-        <v>3.594</v>
-      </c>
-      <c r="D27" s="24" t="n">
-        <v>6100</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>万盛股份</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>603010</t>
+        </is>
+      </c>
+      <c r="C27" s="25" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D27" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="25">
         <f>C27*D27</f>
         <v/>
       </c>
-      <c r="F27" s="20">
-        <f>E27/E29</f>
+      <c r="F27" s="22">
+        <f>E27/E33</f>
+        <v/>
+      </c>
+      <c r="G27" s="22">
+        <f>F27</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>山东药玻</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="C28" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23" t="n">
-        <v>3273.52</v>
-      </c>
-      <c r="F28" s="20">
-        <f>E28/E29</f>
-        <v/>
-      </c>
-      <c r="G28" s="20">
-        <f>SUM(F28)</f>
+          <t>600529</t>
+        </is>
+      </c>
+      <c r="C28" s="25" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D28" s="26" t="n">
+        <v>300</v>
+      </c>
+      <c r="E28" s="25">
+        <f>C28*D28</f>
+        <v/>
+      </c>
+      <c r="F28" s="22">
+        <f>E28/E33</f>
+        <v/>
+      </c>
+      <c r="G28" s="22">
+        <f>F28</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>300ETF</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C29" s="25" t="n">
+        <v>4.609</v>
+      </c>
+      <c r="D29" s="26" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E29" s="25">
+        <f>C29*D29</f>
+        <v/>
+      </c>
+      <c r="F29" s="22">
+        <f>E29/E33</f>
+        <v/>
+      </c>
+      <c r="G29" s="20">
+        <f>SUM(F29:F31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>100ETF</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>512910</t>
+        </is>
+      </c>
+      <c r="C30" s="25" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="D30" s="26" t="n">
+        <v>500</v>
+      </c>
+      <c r="E30" s="25">
+        <f>C30*D30</f>
+        <v/>
+      </c>
+      <c r="F30" s="22">
+        <f>E30/E33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C31" s="25" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D31" s="26" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E31" s="25">
+        <f>C31*D31</f>
+        <v/>
+      </c>
+      <c r="F31" s="22">
+        <f>E31/E33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="C32" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="25" t="n">
+        <v>3273.52</v>
+      </c>
+      <c r="F32" s="22">
+        <f>E32/E33</f>
+        <v/>
+      </c>
+      <c r="G32" s="22">
+        <f>SUM(F32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E29" s="23">
-        <f>SUM(E2:E28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="20">
-        <f>SUM(G2:G28)</f>
+      <c r="E33" s="25">
+        <f>SUM(E2:E32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="22">
+        <f>SUM(G2:G32)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G29:G31"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G11"/>
     <mergeCell ref="G12:G16"/>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="个人持仓" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -34,6 +34,13 @@
       <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,12 +155,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -550,23 +551,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
-    <col width="9" customWidth="1" style="26" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="22" min="6" max="6"/>
-    <col width="9.875" customWidth="1" style="21" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
+    <col width="9" customWidth="1" style="24" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
+    <col width="9.875" customWidth="1" style="19" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="30"/>
+    <col width="9" customWidth="1" style="1" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -580,17 +581,17 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="28" t="inlineStr">
+      <c r="D1" s="26" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
@@ -615,21 +616,21 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>51.39</v>
-      </c>
-      <c r="D2" s="26" t="n">
+      <c r="C2" s="23" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <f>C2*D2</f>
         <v/>
       </c>
-      <c r="F2" s="22">
-        <f>E2/E29</f>
-        <v/>
-      </c>
-      <c r="G2" s="24">
+      <c r="F2" s="20">
+        <f>E2/E28</f>
+        <v/>
+      </c>
+      <c r="G2" s="22">
         <f>SUM(F2:F2)</f>
         <v/>
       </c>
@@ -645,21 +646,21 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="D3" s="26" t="n">
+      <c r="C3" s="23" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <f>C3*D3</f>
         <v/>
       </c>
-      <c r="F3" s="22">
-        <f>E3/E29</f>
-        <v/>
-      </c>
-      <c r="G3" s="22">
+      <c r="F3" s="20">
+        <f>E3/E28</f>
+        <v/>
+      </c>
+      <c r="G3" s="20">
         <f>SUM(F3:F9)</f>
         <v/>
       </c>
@@ -675,18 +676,18 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="23" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>600</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>C4*D4</f>
         <v/>
       </c>
-      <c r="F4" s="22">
-        <f>E4/E29</f>
+      <c r="F4" s="20">
+        <f>E4/E28</f>
         <v/>
       </c>
     </row>
@@ -701,18 +702,18 @@
           <t>000538</t>
         </is>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>90.54000000000001</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="C5" s="23" t="n">
+        <v>81</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" s="23">
         <f>C5*D5</f>
         <v/>
       </c>
-      <c r="F5" s="22">
-        <f>E5/E29</f>
+      <c r="F5" s="20">
+        <f>E5/E28</f>
         <v/>
       </c>
     </row>
@@ -727,18 +728,18 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="D6" s="26" t="n">
+      <c r="C6" s="23" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="D6" s="24" t="n">
         <v>800</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <f>C6*D6</f>
         <v/>
       </c>
-      <c r="F6" s="22">
-        <f>E6/E29</f>
+      <c r="F6" s="20">
+        <f>E6/E28</f>
         <v/>
       </c>
     </row>
@@ -753,18 +754,18 @@
           <t>000963</t>
         </is>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>37.15</v>
-      </c>
-      <c r="D7" s="26" t="n">
+      <c r="C7" s="23" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>640</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f>C7*D7</f>
         <v/>
       </c>
-      <c r="F7" s="22">
-        <f>E7/E29</f>
+      <c r="F7" s="20">
+        <f>E7/E28</f>
         <v/>
       </c>
     </row>
@@ -779,18 +780,18 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C8" s="25" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="D8" s="26" t="n">
+      <c r="C8" s="23" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="D8" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f>C8*D8</f>
         <v/>
       </c>
-      <c r="F8" s="22">
-        <f>E8/E29</f>
+      <c r="F8" s="20">
+        <f>E8/E28</f>
         <v/>
       </c>
     </row>
@@ -805,18 +806,18 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>28.13</v>
-      </c>
-      <c r="D9" s="26" t="n">
+      <c r="C9" s="23" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>900</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f>C9*D9</f>
         <v/>
       </c>
-      <c r="F9" s="22">
-        <f>E9/E29</f>
+      <c r="F9" s="20">
+        <f>E9/E28</f>
         <v/>
       </c>
     </row>
@@ -831,21 +832,21 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>169</v>
-      </c>
-      <c r="D10" s="26" t="n">
+      <c r="C10" s="23" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f>C10*D10</f>
         <v/>
       </c>
-      <c r="F10" s="22">
-        <f>E10/E29</f>
-        <v/>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="20">
+        <f>E10/E28</f>
+        <v/>
+      </c>
+      <c r="G10" s="21">
         <f>SUM(F10:F13)</f>
         <v/>
       </c>
@@ -861,18 +862,18 @@
           <t>000858</t>
         </is>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>193.19</v>
-      </c>
-      <c r="D11" s="26" t="n">
+      <c r="C11" s="23" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="D11" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <f>C11*D11</f>
         <v/>
       </c>
-      <c r="F11" s="22">
-        <f>E11/E29</f>
+      <c r="F11" s="20">
+        <f>E11/E28</f>
         <v/>
       </c>
     </row>
@@ -887,18 +888,18 @@
           <t>000568</t>
         </is>
       </c>
-      <c r="C12" s="25" t="n">
-        <v>220.79</v>
-      </c>
-      <c r="D12" s="26" t="n">
+      <c r="C12" s="23" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <f>C12*D12</f>
         <v/>
       </c>
-      <c r="F12" s="22">
-        <f>E12/E29</f>
+      <c r="F12" s="20">
+        <f>E12/E28</f>
         <v/>
       </c>
     </row>
@@ -913,18 +914,18 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D13" s="26" t="n">
+      <c r="C13" s="23" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <v>8400</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f>C13*D13</f>
         <v/>
       </c>
-      <c r="F13" s="22">
-        <f>E13/E29</f>
+      <c r="F13" s="20">
+        <f>E13/E28</f>
         <v/>
       </c>
     </row>
@@ -939,21 +940,21 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C14" s="25" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="D14" s="26" t="n">
-        <v>1468</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="C14" s="23" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="D14" s="24" t="n">
+        <v>1568</v>
+      </c>
+      <c r="E14" s="23">
         <f>C14*D14</f>
         <v/>
       </c>
-      <c r="F14" s="22">
-        <f>E14/E29</f>
-        <v/>
-      </c>
-      <c r="G14" s="22">
+      <c r="F14" s="20">
+        <f>E14/E28</f>
+        <v/>
+      </c>
+      <c r="G14" s="20">
         <f>SUM(F14:F18)</f>
         <v/>
       </c>
@@ -969,18 +970,18 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D15" s="26" t="n">
+      <c r="C15" s="23" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="D15" s="24" t="n">
         <v>700</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <f>C15*D15</f>
         <v/>
       </c>
-      <c r="F15" s="22">
-        <f>E15/E29</f>
+      <c r="F15" s="20">
+        <f>E15/E28</f>
         <v/>
       </c>
     </row>
@@ -995,18 +996,18 @@
           <t>000895</t>
         </is>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>29.36</v>
-      </c>
-      <c r="D16" s="26" t="n">
+      <c r="C16" s="23" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f>C16*D16</f>
         <v/>
       </c>
-      <c r="F16" s="22">
-        <f>E16/E29</f>
+      <c r="F16" s="20">
+        <f>E16/E28</f>
         <v/>
       </c>
     </row>
@@ -1021,18 +1022,18 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="26" t="n">
+      <c r="C17" s="23" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <v>600</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <f>C17*D17</f>
         <v/>
       </c>
-      <c r="F17" s="22">
-        <f>E17/E29</f>
+      <c r="F17" s="20">
+        <f>E17/E28</f>
         <v/>
       </c>
     </row>
@@ -1047,18 +1048,18 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C18" s="25" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="D18" s="26" t="n">
+      <c r="C18" s="23" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="D18" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f>C18*D18</f>
         <v/>
       </c>
-      <c r="F18" s="22">
-        <f>E18/E29</f>
+      <c r="F18" s="20">
+        <f>E18/E28</f>
         <v/>
       </c>
     </row>
@@ -1073,21 +1074,21 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C19" s="25" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="D19" s="26" t="n">
+      <c r="C19" s="23" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="D19" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>C19*D19</f>
         <v/>
       </c>
-      <c r="F19" s="22">
-        <f>E19/E29</f>
-        <v/>
-      </c>
-      <c r="G19" s="22">
+      <c r="F19" s="20">
+        <f>E19/E28</f>
+        <v/>
+      </c>
+      <c r="G19" s="20">
         <f>SUM(F19:F20)</f>
         <v/>
       </c>
@@ -1103,18 +1104,18 @@
           <t>002508</t>
         </is>
       </c>
-      <c r="C20" s="25" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="D20" s="26" t="n">
+      <c r="C20" s="23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D20" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <f>C20*D20</f>
         <v/>
       </c>
-      <c r="F20" s="22">
-        <f>E20/E29</f>
+      <c r="F20" s="20">
+        <f>E20/E28</f>
         <v/>
       </c>
     </row>
@@ -1130,20 +1131,20 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="D21" s="26" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="D21" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f>C21*D21</f>
         <v/>
       </c>
-      <c r="F21" s="22">
-        <f>E21/E29</f>
-        <v/>
-      </c>
-      <c r="G21" s="20">
+      <c r="F21" s="20">
+        <f>E21/E28</f>
+        <v/>
+      </c>
+      <c r="G21" s="18">
         <f>F21</f>
         <v/>
       </c>
@@ -1160,20 +1161,20 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="D22" s="26" t="n">
+        <v>174.26</v>
+      </c>
+      <c r="D22" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>C22*D22</f>
         <v/>
       </c>
-      <c r="F22" s="22">
-        <f>E22/E29</f>
-        <v/>
-      </c>
-      <c r="G22" s="20">
+      <c r="F22" s="20">
+        <f>E22/E28</f>
+        <v/>
+      </c>
+      <c r="G22" s="18">
         <f>F22</f>
         <v/>
       </c>
@@ -1181,29 +1182,29 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>大族数控</t>
+          <t>万盛股份</t>
         </is>
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>301200</t>
+          <t>603010</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="D23" s="26" t="n">
-        <v>500</v>
-      </c>
-      <c r="E23" s="25">
+        <v>19.76</v>
+      </c>
+      <c r="D23" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="23">
         <f>C23*D23</f>
         <v/>
       </c>
-      <c r="F23" s="22">
-        <f>E23/E29</f>
-        <v/>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="20">
+        <f>E23/E28</f>
+        <v/>
+      </c>
+      <c r="G23" s="18">
         <f>F23</f>
         <v/>
       </c>
@@ -1211,163 +1212,133 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>万盛股份</t>
+          <t>山东药玻</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>603010</t>
+          <t>600529</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D24" s="26" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="D24" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <f>C24*D24</f>
         <v/>
       </c>
-      <c r="F24" s="22">
-        <f>E24/E29</f>
-        <v/>
-      </c>
-      <c r="G24" s="20">
+      <c r="F24" s="20">
+        <f>E24/E28</f>
+        <v/>
+      </c>
+      <c r="G24" s="18">
         <f>F24</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>山东药玻</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>600529</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="D25" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>300ETF</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C25" s="23" t="n">
+        <v>4.269</v>
+      </c>
+      <c r="D25" s="24" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E25" s="23">
         <f>C25*D25</f>
         <v/>
       </c>
-      <c r="F25" s="22">
-        <f>E25/E29</f>
-        <v/>
-      </c>
-      <c r="G25" s="20">
-        <f>F25</f>
+      <c r="F25" s="20">
+        <f>E25/E28</f>
+        <v/>
+      </c>
+      <c r="G25" s="18">
+        <f>SUM(F25:F26)</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>510300</t>
-        </is>
-      </c>
-      <c r="C26" s="25" t="n">
-        <v>4.609</v>
-      </c>
-      <c r="D26" s="26" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E26" s="25">
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="D26" s="24" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="23">
         <f>C26*D26</f>
         <v/>
       </c>
-      <c r="F26" s="22">
-        <f>E26/E29</f>
-        <v/>
-      </c>
-      <c r="G26" s="20">
-        <f>SUM(F26:F27)</f>
+      <c r="F26" s="20">
+        <f>E26/E28</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>黄金ETF</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>518880</t>
-        </is>
-      </c>
-      <c r="C27" s="25" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D27" s="26" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E27" s="25">
-        <f>C27*D27</f>
-        <v/>
-      </c>
-      <c r="F27" s="22">
-        <f>E27/E29</f>
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <f>E27/E28</f>
+        <v/>
+      </c>
+      <c r="G27" s="18">
+        <f>SUM(F27)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="C28" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="25" t="n">
-        <v>11845.07</v>
-      </c>
-      <c r="F28" s="22">
-        <f>E28/E29</f>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="E28" s="23">
+        <f>SUM(E2:E27)</f>
         <v/>
       </c>
       <c r="G28" s="20">
-        <f>SUM(F28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="E29" s="25">
-        <f>SUM(E2:E28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="22">
-        <f>SUM(G2:G28)</f>
+        <f>SUM(G2:G27)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G18"/>
@@ -1384,23 +1355,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
-    <col width="9" customWidth="1" style="26" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="22" min="6" max="6"/>
-    <col width="9.875" customWidth="1" style="21" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="23"/>
-    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
+    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
+    <col width="9" customWidth="1" style="24" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
+    <col width="9.875" customWidth="1" style="19" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="27"/>
+    <col width="9" customWidth="1" style="1" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1414,17 +1385,17 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="28" t="inlineStr">
+      <c r="D1" s="26" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
@@ -1449,21 +1420,21 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>51.39</v>
-      </c>
-      <c r="D2" s="26" t="n">
+      <c r="C2" s="23" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <f>C2*D2</f>
         <v/>
       </c>
-      <c r="F2" s="22">
-        <f>E2/E33</f>
-        <v/>
-      </c>
-      <c r="G2" s="24">
+      <c r="F2" s="20">
+        <f>E2/E32</f>
+        <v/>
+      </c>
+      <c r="G2" s="22">
         <f>SUM(F2:F4)</f>
         <v/>
       </c>
@@ -1479,18 +1450,18 @@
           <t>002142</t>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>38.44</v>
-      </c>
-      <c r="D3" s="26" t="n">
+      <c r="C3" s="23" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <f>C3*D3</f>
         <v/>
       </c>
-      <c r="F3" s="22">
-        <f>E3/E33</f>
+      <c r="F3" s="20">
+        <f>E3/E32</f>
         <v/>
       </c>
     </row>
@@ -1505,18 +1476,18 @@
           <t>600036</t>
         </is>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="23" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>C4*D4</f>
         <v/>
       </c>
-      <c r="F4" s="22">
-        <f>E4/E33</f>
+      <c r="F4" s="20">
+        <f>E4/E32</f>
         <v/>
       </c>
     </row>
@@ -1531,21 +1502,21 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="C5" s="23" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D5" s="24" t="n">
         <v>1200</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <f>C5*D5</f>
         <v/>
       </c>
-      <c r="F5" s="22">
-        <f>E5/E33</f>
-        <v/>
-      </c>
-      <c r="G5" s="22">
+      <c r="F5" s="20">
+        <f>E5/E32</f>
+        <v/>
+      </c>
+      <c r="G5" s="20">
         <f>SUM(F5:F11)</f>
         <v/>
       </c>
@@ -1561,18 +1532,18 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="D6" s="26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="C6" s="23" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="23">
         <f>C6*D6</f>
         <v/>
       </c>
-      <c r="F6" s="22">
-        <f>E6/E33</f>
+      <c r="F6" s="20">
+        <f>E6/E32</f>
         <v/>
       </c>
     </row>
@@ -1587,18 +1558,18 @@
           <t>000538</t>
         </is>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>90.54000000000001</v>
-      </c>
-      <c r="D7" s="26" t="n">
-        <v>400</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="C7" s="23" t="n">
+        <v>81</v>
+      </c>
+      <c r="D7" s="24" t="n">
+        <v>500</v>
+      </c>
+      <c r="E7" s="23">
         <f>C7*D7</f>
         <v/>
       </c>
-      <c r="F7" s="22">
-        <f>E7/E33</f>
+      <c r="F7" s="20">
+        <f>E7/E32</f>
         <v/>
       </c>
     </row>
@@ -1613,18 +1584,18 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C8" s="25" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="D8" s="26" t="n">
+      <c r="C8" s="23" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="D8" s="24" t="n">
         <v>1400</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f>C8*D8</f>
         <v/>
       </c>
-      <c r="F8" s="22">
-        <f>E8/E33</f>
+      <c r="F8" s="20">
+        <f>E8/E32</f>
         <v/>
       </c>
     </row>
@@ -1639,18 +1610,18 @@
           <t>000963</t>
         </is>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>37.15</v>
-      </c>
-      <c r="D9" s="26" t="n">
+      <c r="C9" s="23" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>1240</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f>C9*D9</f>
         <v/>
       </c>
-      <c r="F9" s="22">
-        <f>E9/E33</f>
+      <c r="F9" s="20">
+        <f>E9/E32</f>
         <v/>
       </c>
     </row>
@@ -1665,18 +1636,18 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="D10" s="26" t="n">
+      <c r="C10" s="23" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>800</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f>C10*D10</f>
         <v/>
       </c>
-      <c r="F10" s="22">
-        <f>E10/E33</f>
+      <c r="F10" s="20">
+        <f>E10/E32</f>
         <v/>
       </c>
     </row>
@@ -1691,18 +1662,18 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>28.13</v>
-      </c>
-      <c r="D11" s="26" t="n">
+      <c r="C11" s="23" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D11" s="24" t="n">
         <v>1600</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <f>C11*D11</f>
         <v/>
       </c>
-      <c r="F11" s="22">
-        <f>E11/E33</f>
+      <c r="F11" s="20">
+        <f>E11/E32</f>
         <v/>
       </c>
     </row>
@@ -1717,21 +1688,21 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C12" s="25" t="n">
-        <v>169</v>
-      </c>
-      <c r="D12" s="26" t="n">
+      <c r="C12" s="23" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <f>C12*D12</f>
         <v/>
       </c>
-      <c r="F12" s="22">
-        <f>E12/E33</f>
-        <v/>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="20">
+        <f>E12/E32</f>
+        <v/>
+      </c>
+      <c r="G12" s="21">
         <f>SUM(F12:F16)</f>
         <v/>
       </c>
@@ -1747,18 +1718,18 @@
           <t>000568</t>
         </is>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>220.79</v>
-      </c>
-      <c r="D13" s="26" t="n">
+      <c r="C13" s="23" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f>C13*D13</f>
         <v/>
       </c>
-      <c r="F13" s="22">
-        <f>E13/E33</f>
+      <c r="F13" s="20">
+        <f>E13/E32</f>
         <v/>
       </c>
     </row>
@@ -1773,18 +1744,18 @@
           <t>000858</t>
         </is>
       </c>
-      <c r="C14" s="25" t="n">
-        <v>193.19</v>
-      </c>
-      <c r="D14" s="26" t="n">
+      <c r="C14" s="23" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="D14" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <f>C14*D14</f>
         <v/>
       </c>
-      <c r="F14" s="22">
-        <f>E14/E33</f>
+      <c r="F14" s="20">
+        <f>E14/E32</f>
         <v/>
       </c>
     </row>
@@ -1799,18 +1770,18 @@
           <t>600809</t>
         </is>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>297.27</v>
-      </c>
-      <c r="D15" s="26" t="n">
+      <c r="C15" s="23" t="n">
+        <v>258.81</v>
+      </c>
+      <c r="D15" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <f>C15*D15</f>
         <v/>
       </c>
-      <c r="F15" s="22">
-        <f>E15/E33</f>
+      <c r="F15" s="20">
+        <f>E15/E32</f>
         <v/>
       </c>
     </row>
@@ -1825,18 +1796,18 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D16" s="26" t="n">
+      <c r="C16" s="23" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>18600</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f>C16*D16</f>
         <v/>
       </c>
-      <c r="F16" s="22">
-        <f>E16/E33</f>
+      <c r="F16" s="20">
+        <f>E16/E32</f>
         <v/>
       </c>
     </row>
@@ -1851,21 +1822,21 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="D17" s="26" t="n">
-        <v>2568</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="C17" s="23" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="D17" s="24" t="n">
+        <v>2668</v>
+      </c>
+      <c r="E17" s="23">
         <f>C17*D17</f>
         <v/>
       </c>
-      <c r="F17" s="22">
-        <f>E17/E33</f>
-        <v/>
-      </c>
-      <c r="G17" s="22">
+      <c r="F17" s="20">
+        <f>E17/E32</f>
+        <v/>
+      </c>
+      <c r="G17" s="20">
         <f>SUM(F17:F21)</f>
         <v/>
       </c>
@@ -1881,18 +1852,18 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C18" s="25" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D18" s="26" t="n">
-        <v>900</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="C18" s="23" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="D18" s="24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="23">
         <f>C18*D18</f>
         <v/>
       </c>
-      <c r="F18" s="22">
-        <f>E18/E33</f>
+      <c r="F18" s="20">
+        <f>E18/E32</f>
         <v/>
       </c>
     </row>
@@ -1907,18 +1878,18 @@
           <t>000895</t>
         </is>
       </c>
-      <c r="C19" s="25" t="n">
-        <v>29.36</v>
-      </c>
-      <c r="D19" s="26" t="n">
+      <c r="C19" s="23" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="D19" s="24" t="n">
         <v>1300</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>C19*D19</f>
         <v/>
       </c>
-      <c r="F19" s="22">
-        <f>E19/E33</f>
+      <c r="F19" s="20">
+        <f>E19/E32</f>
         <v/>
       </c>
     </row>
@@ -1933,18 +1904,18 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C20" s="25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" s="26" t="n">
-        <v>900</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="C20" s="23" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D20" s="24" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="23">
         <f>C20*D20</f>
         <v/>
       </c>
-      <c r="F20" s="22">
-        <f>E20/E33</f>
+      <c r="F20" s="20">
+        <f>E20/E32</f>
         <v/>
       </c>
     </row>
@@ -1959,18 +1930,18 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C21" s="25" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="D21" s="26" t="n">
+      <c r="C21" s="23" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="D21" s="24" t="n">
         <v>700</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f>C21*D21</f>
         <v/>
       </c>
-      <c r="F21" s="22">
-        <f>E21/E33</f>
+      <c r="F21" s="20">
+        <f>E21/E32</f>
         <v/>
       </c>
     </row>
@@ -1985,21 +1956,21 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C22" s="25" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="D22" s="26" t="n">
+      <c r="C22" s="23" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="D22" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>C22*D22</f>
         <v/>
       </c>
-      <c r="F22" s="22">
-        <f>E22/E33</f>
-        <v/>
-      </c>
-      <c r="G22" s="22">
+      <c r="F22" s="20">
+        <f>E22/E32</f>
+        <v/>
+      </c>
+      <c r="G22" s="20">
         <f>SUM(F22:F23)</f>
         <v/>
       </c>
@@ -2015,18 +1986,18 @@
           <t>002508</t>
         </is>
       </c>
-      <c r="C23" s="25" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="D23" s="26" t="n">
-        <v>200</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="C23" s="23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D23" s="24" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="23">
         <f>C23*D23</f>
         <v/>
       </c>
-      <c r="F23" s="22">
-        <f>E23/E33</f>
+      <c r="F23" s="20">
+        <f>E23/E32</f>
         <v/>
       </c>
     </row>
@@ -2041,21 +2012,21 @@
           <t>601888</t>
         </is>
       </c>
-      <c r="C24" s="25" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="D24" s="26" t="n">
+      <c r="C24" s="23" t="n">
+        <v>174.26</v>
+      </c>
+      <c r="D24" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <f>C24*D24</f>
         <v/>
       </c>
-      <c r="F24" s="22">
-        <f>E24/E33</f>
-        <v/>
-      </c>
-      <c r="G24" s="22">
+      <c r="F24" s="20">
+        <f>E24/E32</f>
+        <v/>
+      </c>
+      <c r="G24" s="20">
         <f>F24</f>
         <v/>
       </c>
@@ -2071,21 +2042,21 @@
           <t>688772</t>
         </is>
       </c>
-      <c r="C25" s="25" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="D25" s="26" t="n">
+      <c r="C25" s="23" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="D25" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <f>C25*D25</f>
         <v/>
       </c>
-      <c r="F25" s="22">
-        <f>E25/E33</f>
-        <v/>
-      </c>
-      <c r="G25" s="22">
+      <c r="F25" s="20">
+        <f>E25/E32</f>
+        <v/>
+      </c>
+      <c r="G25" s="20">
         <f>F25</f>
         <v/>
       </c>
@@ -2093,29 +2064,29 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>大族数控</t>
+          <t>万盛股份</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>301200</t>
-        </is>
-      </c>
-      <c r="C26" s="25" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="D26" s="26" t="n">
-        <v>500</v>
-      </c>
-      <c r="E26" s="25">
+          <t>603010</t>
+        </is>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="D26" s="24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" s="23">
         <f>C26*D26</f>
         <v/>
       </c>
-      <c r="F26" s="22">
-        <f>E26/E33</f>
-        <v/>
-      </c>
-      <c r="G26" s="22">
+      <c r="F26" s="20">
+        <f>E26/E32</f>
+        <v/>
+      </c>
+      <c r="G26" s="20">
         <f>F26</f>
         <v/>
       </c>
@@ -2123,189 +2094,159 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>万盛股份</t>
+          <t>山东药玻</t>
         </is>
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
-          <t>603010</t>
-        </is>
-      </c>
-      <c r="C27" s="25" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D27" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="25">
+          <t>600529</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="D27" s="24" t="n">
+        <v>400</v>
+      </c>
+      <c r="E27" s="23">
         <f>C27*D27</f>
         <v/>
       </c>
-      <c r="F27" s="22">
-        <f>E27/E33</f>
-        <v/>
-      </c>
-      <c r="G27" s="22">
+      <c r="F27" s="20">
+        <f>E27/E32</f>
+        <v/>
+      </c>
+      <c r="G27" s="20">
         <f>F27</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>山东药玻</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>600529</t>
-        </is>
-      </c>
-      <c r="C28" s="25" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="D28" s="26" t="n">
-        <v>300</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>300ETF</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C28" s="23" t="n">
+        <v>4.269</v>
+      </c>
+      <c r="D28" s="24" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E28" s="23">
         <f>C28*D28</f>
         <v/>
       </c>
-      <c r="F28" s="22">
-        <f>E28/E33</f>
-        <v/>
-      </c>
-      <c r="G28" s="22">
-        <f>F28</f>
+      <c r="F28" s="20">
+        <f>E28/E32</f>
+        <v/>
+      </c>
+      <c r="G28" s="18">
+        <f>SUM(F28:F30)</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>100ETF</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>510300</t>
-        </is>
-      </c>
-      <c r="C29" s="25" t="n">
-        <v>4.609</v>
-      </c>
-      <c r="D29" s="26" t="n">
-        <v>3700</v>
-      </c>
-      <c r="E29" s="25">
+          <t>512910</t>
+        </is>
+      </c>
+      <c r="C29" s="23" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="D29" s="24" t="n">
+        <v>500</v>
+      </c>
+      <c r="E29" s="23">
         <f>C29*D29</f>
         <v/>
       </c>
-      <c r="F29" s="22">
-        <f>E29/E33</f>
-        <v/>
-      </c>
-      <c r="G29" s="20">
-        <f>SUM(F29:F31)</f>
+      <c r="F29" s="20">
+        <f>E29/E32</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>100ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>512910</t>
-        </is>
-      </c>
-      <c r="C30" s="25" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="D30" s="26" t="n">
-        <v>500</v>
-      </c>
-      <c r="E30" s="25">
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C30" s="23" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="D30" s="24" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E30" s="23">
         <f>C30*D30</f>
         <v/>
       </c>
-      <c r="F30" s="22">
-        <f>E30/E33</f>
+      <c r="F30" s="20">
+        <f>E30/E32</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>黄金ETF</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>518880</t>
-        </is>
-      </c>
-      <c r="C31" s="25" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D31" s="26" t="n">
-        <v>4700</v>
-      </c>
-      <c r="E31" s="25">
-        <f>C31*D31</f>
-        <v/>
-      </c>
-      <c r="F31" s="22">
-        <f>E31/E33</f>
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="C31" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <v>22110.71</v>
+      </c>
+      <c r="F31" s="20">
+        <f>E31/E32</f>
+        <v/>
+      </c>
+      <c r="G31" s="20">
+        <f>SUM(F31)</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="C32" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="25" t="n">
-        <v>3273.52</v>
-      </c>
-      <c r="F32" s="22">
-        <f>E32/E33</f>
-        <v/>
-      </c>
-      <c r="G32" s="22">
-        <f>SUM(F32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E33" s="25">
-        <f>SUM(E2:E32)</f>
-        <v/>
-      </c>
-      <c r="G33" s="22">
-        <f>SUM(G2:G32)</f>
+      <c r="E32" s="23">
+        <f>SUM(E2:E31)</f>
+        <v/>
+      </c>
+      <c r="G32" s="20">
+        <f>SUM(G2:G31)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G28:G30"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G11"/>
     <mergeCell ref="G12:G16"/>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -31,9 +31,14 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -46,7 +51,9 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,11 +105,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,58 +125,64 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -551,23 +564,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
-    <col width="9" customWidth="1" style="24" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
-    <col width="9.875" customWidth="1" style="19" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="30"/>
-    <col width="9" customWidth="1" style="1" min="31" max="16384"/>
+    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
+    <col width="9" customWidth="1" style="26" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
+    <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -581,22 +594,22 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
@@ -616,21 +629,21 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="23" t="n">
-        <v>48.96</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="25" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="25">
         <f>C2*D2</f>
         <v/>
       </c>
-      <c r="F2" s="20">
-        <f>E2/E28</f>
-        <v/>
-      </c>
-      <c r="G2" s="22">
+      <c r="F2" s="19">
+        <f>E2/E26</f>
+        <v/>
+      </c>
+      <c r="G2" s="8">
         <f>SUM(F2:F2)</f>
         <v/>
       </c>
@@ -646,21 +659,21 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C3" s="23" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="25" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="D3" s="26" t="n">
         <v>1000</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="25">
         <f>C3*D3</f>
         <v/>
       </c>
-      <c r="F3" s="20">
-        <f>E3/E28</f>
-        <v/>
-      </c>
-      <c r="G3" s="20">
+      <c r="F3" s="19">
+        <f>E3/E26</f>
+        <v/>
+      </c>
+      <c r="G3" s="19">
         <f>SUM(F3:F9)</f>
         <v/>
       </c>
@@ -676,18 +689,18 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C4" s="23" t="n">
-        <v>33.81</v>
-      </c>
-      <c r="D4" s="24" t="n">
-        <v>600</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="C4" s="25" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>700</v>
+      </c>
+      <c r="E4" s="25">
         <f>C4*D4</f>
         <v/>
       </c>
-      <c r="F4" s="20">
-        <f>E4/E28</f>
+      <c r="F4" s="19">
+        <f>E4/E26</f>
         <v/>
       </c>
     </row>
@@ -697,23 +710,23 @@
           <t>云南白药</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>000538</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n">
-        <v>81</v>
-      </c>
-      <c r="D5" s="24" t="n">
+      <c r="C5" s="25" t="n">
+        <v>76.28</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <f>C5*D5</f>
         <v/>
       </c>
-      <c r="F5" s="20">
-        <f>E5/E28</f>
+      <c r="F5" s="19">
+        <f>E5/E26</f>
         <v/>
       </c>
     </row>
@@ -728,18 +741,18 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="25" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>800</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="25">
         <f>C6*D6</f>
         <v/>
       </c>
-      <c r="F6" s="20">
-        <f>E6/E28</f>
+      <c r="F6" s="19">
+        <f>E6/E26</f>
         <v/>
       </c>
     </row>
@@ -749,23 +762,23 @@
           <t>华东医药</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>000963</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="25" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>640</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="25">
         <f>C7*D7</f>
         <v/>
       </c>
-      <c r="F7" s="20">
-        <f>E7/E28</f>
+      <c r="F7" s="19">
+        <f>E7/E26</f>
         <v/>
       </c>
     </row>
@@ -780,18 +793,18 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="D8" s="24" t="n">
+      <c r="C8" s="25" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>500</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="25">
         <f>C8*D8</f>
         <v/>
       </c>
-      <c r="F8" s="20">
-        <f>E8/E28</f>
+      <c r="F8" s="19">
+        <f>E8/E26</f>
         <v/>
       </c>
     </row>
@@ -806,18 +819,18 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D9" s="24" t="n">
-        <v>900</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="C9" s="25" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="D9" s="26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="25">
         <f>C9*D9</f>
         <v/>
       </c>
-      <c r="F9" s="20">
-        <f>E9/E28</f>
+      <c r="F9" s="19">
+        <f>E9/E26</f>
         <v/>
       </c>
     </row>
@@ -832,18 +845,18 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C10" s="23" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="25" t="n">
+        <v>159.06</v>
+      </c>
+      <c r="D10" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="25">
         <f>C10*D10</f>
         <v/>
       </c>
-      <c r="F10" s="20">
-        <f>E10/E28</f>
+      <c r="F10" s="19">
+        <f>E10/E26</f>
         <v/>
       </c>
       <c r="G10" s="21">
@@ -857,23 +870,23 @@
           <t>五粮液</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>000858</t>
         </is>
       </c>
-      <c r="C11" s="23" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="25" t="n">
+        <v>162.13</v>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="25">
         <f>C11*D11</f>
         <v/>
       </c>
-      <c r="F11" s="20">
-        <f>E11/E28</f>
+      <c r="F11" s="19">
+        <f>E11/E26</f>
         <v/>
       </c>
     </row>
@@ -883,23 +896,23 @@
           <t>泸州老窖</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>000568</t>
         </is>
       </c>
-      <c r="C12" s="23" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="25" t="n">
+        <v>210.73</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="25">
         <f>C12*D12</f>
         <v/>
       </c>
-      <c r="F12" s="20">
-        <f>E12/E28</f>
+      <c r="F12" s="19">
+        <f>E12/E26</f>
         <v/>
       </c>
     </row>
@@ -914,18 +927,18 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C13" s="23" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="D13" s="24" t="n">
+      <c r="C13" s="25" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>8400</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="25">
         <f>C13*D13</f>
         <v/>
       </c>
-      <c r="F13" s="20">
-        <f>E13/E28</f>
+      <c r="F13" s="19">
+        <f>E13/E26</f>
         <v/>
       </c>
     </row>
@@ -940,21 +953,21 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C14" s="23" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="25" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D14" s="26" t="n">
         <v>1568</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="25">
         <f>C14*D14</f>
         <v/>
       </c>
-      <c r="F14" s="20">
-        <f>E14/E28</f>
-        <v/>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="19">
+        <f>E14/E26</f>
+        <v/>
+      </c>
+      <c r="G14" s="19">
         <f>SUM(F14:F18)</f>
         <v/>
       </c>
@@ -970,18 +983,18 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C15" s="23" t="n">
-        <v>37.34</v>
-      </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="25" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>700</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="25">
         <f>C15*D15</f>
         <v/>
       </c>
-      <c r="F15" s="20">
-        <f>E15/E28</f>
+      <c r="F15" s="19">
+        <f>E15/E26</f>
         <v/>
       </c>
     </row>
@@ -991,23 +1004,23 @@
           <t>双汇发展</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>000895</t>
         </is>
       </c>
-      <c r="C16" s="23" t="n">
-        <v>29.22</v>
-      </c>
-      <c r="D16" s="24" t="n">
+      <c r="C16" s="25" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="D16" s="26" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="25">
         <f>C16*D16</f>
         <v/>
       </c>
-      <c r="F16" s="20">
-        <f>E16/E28</f>
+      <c r="F16" s="19">
+        <f>E16/E26</f>
         <v/>
       </c>
     </row>
@@ -1022,18 +1035,18 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C17" s="23" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="25" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="D17" s="26" t="n">
         <v>600</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="25">
         <f>C17*D17</f>
         <v/>
       </c>
-      <c r="F17" s="20">
-        <f>E17/E28</f>
+      <c r="F17" s="19">
+        <f>E17/E26</f>
         <v/>
       </c>
     </row>
@@ -1048,18 +1061,18 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C18" s="23" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="D18" s="24" t="n">
+      <c r="C18" s="25" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D18" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="25">
         <f>C18*D18</f>
         <v/>
       </c>
-      <c r="F18" s="20">
-        <f>E18/E28</f>
+      <c r="F18" s="19">
+        <f>E18/E26</f>
         <v/>
       </c>
     </row>
@@ -1074,21 +1087,21 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C19" s="23" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="D19" s="24" t="n">
+      <c r="C19" s="25" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="D19" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="25">
         <f>C19*D19</f>
         <v/>
       </c>
-      <c r="F19" s="20">
-        <f>E19/E28</f>
-        <v/>
-      </c>
-      <c r="G19" s="20">
+      <c r="F19" s="19">
+        <f>E19/E26</f>
+        <v/>
+      </c>
+      <c r="G19" s="19">
         <f>SUM(F19:F20)</f>
         <v/>
       </c>
@@ -1099,250 +1112,190 @@
           <t>老板电器</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>002508</t>
         </is>
       </c>
-      <c r="C20" s="23" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D20" s="24" t="n">
+      <c r="C20" s="25" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D20" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="25">
         <f>C20*D20</f>
         <v/>
       </c>
-      <c r="F20" s="20">
-        <f>E20/E28</f>
+      <c r="F20" s="19">
+        <f>E20/E26</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>珠海冠宇</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="inlineStr">
-        <is>
-          <t>688772</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>中国中免</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>601888</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>31.27</v>
-      </c>
-      <c r="D21" s="24" t="n">
-        <v>500</v>
-      </c>
-      <c r="E21" s="23">
+        <v>181.99</v>
+      </c>
+      <c r="D21" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="25">
         <f>C21*D21</f>
         <v/>
       </c>
-      <c r="F21" s="20">
-        <f>E21/E28</f>
-        <v/>
-      </c>
-      <c r="G21" s="18">
+      <c r="F21" s="19">
+        <f>E21/E26</f>
+        <v/>
+      </c>
+      <c r="G21" s="22">
         <f>F21</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>中国中免</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>601888</t>
+      <c r="A22" s="23" t="inlineStr">
+        <is>
+          <t>山东药玻</t>
+        </is>
+      </c>
+      <c r="B22" s="24" t="inlineStr">
+        <is>
+          <t>600529</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>174.26</v>
-      </c>
-      <c r="D22" s="24" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="D22" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="25">
         <f>C22*D22</f>
         <v/>
       </c>
-      <c r="F22" s="20">
-        <f>E22/E28</f>
-        <v/>
-      </c>
-      <c r="G22" s="18">
-        <f>F22</f>
+      <c r="F22" s="19">
+        <f>E22/E26</f>
+        <v/>
+      </c>
+      <c r="G22" s="22">
+        <f>SUM(F22)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>万盛股份</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>603010</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="D23" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>300ETF</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C23" s="25" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="25">
         <f>C23*D23</f>
         <v/>
       </c>
-      <c r="F23" s="20">
-        <f>E23/E28</f>
-        <v/>
-      </c>
-      <c r="G23" s="18">
-        <f>F23</f>
+      <c r="F23" s="19">
+        <f>E23/E26</f>
+        <v/>
+      </c>
+      <c r="G23" s="22">
+        <f>SUM(F23:F24)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>山东药玻</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>600529</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C24" s="25" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="D24" s="26" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="25">
         <f>C24*D24</f>
         <v/>
       </c>
-      <c r="F24" s="20">
-        <f>E24/E28</f>
-        <v/>
-      </c>
-      <c r="G24" s="18">
-        <f>F24</f>
+      <c r="F24" s="19">
+        <f>E24/E26</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>510300</t>
-        </is>
-      </c>
-      <c r="C25" s="23" t="n">
-        <v>4.269</v>
-      </c>
-      <c r="D25" s="24" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E25" s="23">
-        <f>C25*D25</f>
-        <v/>
-      </c>
-      <c r="F25" s="20">
-        <f>E25/E28</f>
-        <v/>
-      </c>
-      <c r="G25" s="18">
-        <f>SUM(F25:F26)</f>
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="C25" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="25" t="n">
+        <v>10177.72</v>
+      </c>
+      <c r="F25" s="19">
+        <f>E25/E26</f>
+        <v/>
+      </c>
+      <c r="G25" s="22">
+        <f>SUM(F25)</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>518880</t>
-        </is>
-      </c>
-      <c r="C26" s="23" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="D26" s="24" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E26" s="23">
-        <f>C26*D26</f>
-        <v/>
-      </c>
-      <c r="F26" s="20">
-        <f>E26/E28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="C27" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <f>E27/E28</f>
-        <v/>
-      </c>
-      <c r="G27" s="18">
-        <f>SUM(F27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E28" s="23">
-        <f>SUM(E2:E27)</f>
-        <v/>
-      </c>
-      <c r="G28" s="20">
-        <f>SUM(G2:G27)</f>
+      <c r="E26" s="25">
+        <f>SUM(E2:E25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="19">
+        <f>SUM(G2:G25)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G23:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1355,23 +1308,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
-    <col width="9" customWidth="1" style="24" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
-    <col width="9.875" customWidth="1" style="19" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="27"/>
-    <col width="9" customWidth="1" style="1" min="28" max="16384"/>
+    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
+    <col width="9" customWidth="1" style="26" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
+    <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1385,22 +1338,22 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
@@ -1420,838 +1373,725 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="23" t="n">
-        <v>48.96</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="25" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="25">
         <f>C2*D2</f>
         <v/>
       </c>
-      <c r="F2" s="20">
-        <f>E2/E32</f>
-        <v/>
-      </c>
-      <c r="G2" s="22">
-        <f>SUM(F2:F4)</f>
+      <c r="F2" s="19">
+        <f>E2/E28</f>
+        <v/>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2:F2)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>宁波银行</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
+          <t>中新药业</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>600329</t>
+        </is>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="D3" s="26" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="25">
         <f>C3*D3</f>
         <v/>
       </c>
-      <c r="F3" s="20">
-        <f>E3/E32</f>
+      <c r="F3" s="19">
+        <f>E3/E28</f>
+        <v/>
+      </c>
+      <c r="G3" s="19">
+        <f>SUM(F3:F9)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>招商银行</t>
+          <t>东阿阿胶</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>600036</t>
-        </is>
-      </c>
-      <c r="C4" s="23" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="25">
         <f>C4*D4</f>
         <v/>
       </c>
-      <c r="F4" s="20">
-        <f>E4/E32</f>
+      <c r="F4" s="19">
+        <f>E4/E28</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>中新药业</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>600329</t>
-        </is>
-      </c>
-      <c r="C5" s="23" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="D5" s="24" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E5" s="23">
+          <t>云南白药</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>76.28</v>
+      </c>
+      <c r="D5" s="26" t="n">
+        <v>500</v>
+      </c>
+      <c r="E5" s="25">
         <f>C5*D5</f>
         <v/>
       </c>
-      <c r="F5" s="20">
-        <f>E5/E32</f>
-        <v/>
-      </c>
-      <c r="G5" s="20">
-        <f>SUM(F5:F11)</f>
+      <c r="F5" s="19">
+        <f>E5/E28</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>东阿阿胶</t>
+          <t>白云山</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C6" s="23" t="n">
-        <v>33.81</v>
-      </c>
-      <c r="D6" s="24" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E6" s="23">
+          <t>600332</t>
+        </is>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E6" s="25">
         <f>C6*D6</f>
         <v/>
       </c>
-      <c r="F6" s="20">
-        <f>E6/E32</f>
+      <c r="F6" s="19">
+        <f>E6/E28</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>云南白药</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C7" s="23" t="n">
-        <v>81</v>
-      </c>
-      <c r="D7" s="24" t="n">
-        <v>500</v>
-      </c>
-      <c r="E7" s="23">
+          <t>华东医药</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D7" s="26" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E7" s="25">
         <f>C7*D7</f>
         <v/>
       </c>
-      <c r="F7" s="20">
-        <f>E7/E32</f>
+      <c r="F7" s="19">
+        <f>E7/E28</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>白云山</t>
+          <t>三诺生物</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>600332</t>
-        </is>
-      </c>
-      <c r="C8" s="23" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="D8" s="24" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E8" s="23">
+          <t>300298</t>
+        </is>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>800</v>
+      </c>
+      <c r="E8" s="25">
         <f>C8*D8</f>
         <v/>
       </c>
-      <c r="F8" s="20">
-        <f>E8/E32</f>
+      <c r="F8" s="19">
+        <f>E8/E28</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>华东医药</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C9" s="23" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="D9" s="24" t="n">
-        <v>1240</v>
-      </c>
-      <c r="E9" s="23">
+          <t>天坛生物</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>600161</t>
+        </is>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="D9" s="26" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="25">
         <f>C9*D9</f>
         <v/>
       </c>
-      <c r="F9" s="20">
-        <f>E9/E32</f>
+      <c r="F9" s="19">
+        <f>E9/E28</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>三诺生物</t>
+          <t>洋河股份</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>300298</t>
-        </is>
-      </c>
-      <c r="C10" s="23" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="D10" s="24" t="n">
-        <v>800</v>
-      </c>
-      <c r="E10" s="23">
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>159.06</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="25">
         <f>C10*D10</f>
         <v/>
       </c>
-      <c r="F10" s="20">
-        <f>E10/E32</f>
+      <c r="F10" s="19">
+        <f>E10/E28</f>
+        <v/>
+      </c>
+      <c r="G10" s="21">
+        <f>SUM(F10:F14)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>天坛生物</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>600161</t>
-        </is>
-      </c>
-      <c r="C11" s="23" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D11" s="24" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E11" s="23">
+          <t>泸州老窖</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>000568</t>
+        </is>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>210.73</v>
+      </c>
+      <c r="D11" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25">
         <f>C11*D11</f>
         <v/>
       </c>
-      <c r="F11" s="20">
-        <f>E11/E32</f>
+      <c r="F11" s="19">
+        <f>E11/E28</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>洋河股份</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>002304</t>
-        </is>
-      </c>
-      <c r="C12" s="23" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="D12" s="24" t="n">
-        <v>300</v>
-      </c>
-      <c r="E12" s="23">
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="C12" s="25" t="n">
+        <v>162.13</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25">
         <f>C12*D12</f>
         <v/>
       </c>
-      <c r="F12" s="20">
-        <f>E12/E32</f>
-        <v/>
-      </c>
-      <c r="G12" s="21">
-        <f>SUM(F12:F16)</f>
+      <c r="F12" s="19">
+        <f>E12/E28</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>泸州老窖</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>000568</t>
-        </is>
-      </c>
-      <c r="C13" s="23" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="D13" s="24" t="n">
+          <t>山西汾酒</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>600809</t>
+        </is>
+      </c>
+      <c r="C13" s="25" t="n">
+        <v>272</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="25">
         <f>C13*D13</f>
         <v/>
       </c>
-      <c r="F13" s="20">
-        <f>E13/E32</f>
+      <c r="F13" s="19">
+        <f>E13/E28</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>五粮液</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>000858</t>
-        </is>
-      </c>
-      <c r="C14" s="23" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="D14" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="23">
+          <t>酒ETF</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>18600</v>
+      </c>
+      <c r="E14" s="25">
         <f>C14*D14</f>
         <v/>
       </c>
-      <c r="F14" s="20">
-        <f>E14/E32</f>
+      <c r="F14" s="19">
+        <f>E14/E28</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>山西汾酒</t>
+          <t>恒顺醋业</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>600809</t>
-        </is>
-      </c>
-      <c r="C15" s="23" t="n">
-        <v>258.81</v>
-      </c>
-      <c r="D15" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="23">
+          <t>600305</t>
+        </is>
+      </c>
+      <c r="C15" s="25" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D15" s="26" t="n">
+        <v>2668</v>
+      </c>
+      <c r="E15" s="25">
         <f>C15*D15</f>
         <v/>
       </c>
-      <c r="F15" s="20">
-        <f>E15/E32</f>
+      <c r="F15" s="19">
+        <f>E15/E28</f>
+        <v/>
+      </c>
+      <c r="G15" s="19">
+        <f>SUM(F15:F19)</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>伊利股份</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>512690</t>
-        </is>
-      </c>
-      <c r="C16" s="23" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="D16" s="24" t="n">
-        <v>18600</v>
-      </c>
-      <c r="E16" s="23">
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="25">
         <f>C16*D16</f>
         <v/>
       </c>
-      <c r="F16" s="20">
-        <f>E16/E32</f>
+      <c r="F16" s="19">
+        <f>E16/E28</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>恒顺醋业</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>600305</t>
-        </is>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="D17" s="24" t="n">
-        <v>2668</v>
-      </c>
-      <c r="E17" s="23">
+          <t>双汇发展</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>000895</t>
+        </is>
+      </c>
+      <c r="C17" s="25" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="D17" s="26" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="25">
         <f>C17*D17</f>
         <v/>
       </c>
-      <c r="F17" s="20">
-        <f>E17/E32</f>
-        <v/>
-      </c>
-      <c r="G17" s="20">
-        <f>SUM(F17:F21)</f>
+      <c r="F17" s="19">
+        <f>E17/E28</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>伊利股份</t>
+          <t>涪陵榨菜</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>600887</t>
-        </is>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>37.34</v>
-      </c>
-      <c r="D18" s="24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="23">
+          <t>002507</t>
+        </is>
+      </c>
+      <c r="C18" s="25" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="25">
         <f>C18*D18</f>
         <v/>
       </c>
-      <c r="F18" s="20">
-        <f>E18/E32</f>
+      <c r="F18" s="19">
+        <f>E18/E28</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>双汇发展</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>000895</t>
-        </is>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>29.22</v>
-      </c>
-      <c r="D19" s="24" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E19" s="23">
+          <t>安琪酵母</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>600298</t>
+        </is>
+      </c>
+      <c r="C19" s="25" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D19" s="26" t="n">
+        <v>800</v>
+      </c>
+      <c r="E19" s="25">
         <f>C19*D19</f>
         <v/>
       </c>
-      <c r="F19" s="20">
-        <f>E19/E32</f>
+      <c r="F19" s="19">
+        <f>E19/E28</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>涪陵榨菜</t>
+          <t>格力电器</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>002507</t>
-        </is>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D20" s="24" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E20" s="23">
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="C20" s="25" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="D20" s="26" t="n">
+        <v>400</v>
+      </c>
+      <c r="E20" s="25">
         <f>C20*D20</f>
         <v/>
       </c>
-      <c r="F20" s="20">
-        <f>E20/E32</f>
+      <c r="F20" s="19">
+        <f>E20/E28</f>
+        <v/>
+      </c>
+      <c r="G20" s="19">
+        <f>SUM(F20:F21)</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>安琪酵母</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>600298</t>
-        </is>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="D21" s="24" t="n">
-        <v>700</v>
-      </c>
-      <c r="E21" s="23">
+          <t>老板电器</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>002508</t>
+        </is>
+      </c>
+      <c r="C21" s="25" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D21" s="26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" s="25">
         <f>C21*D21</f>
         <v/>
       </c>
-      <c r="F21" s="20">
-        <f>E21/E32</f>
+      <c r="F21" s="19">
+        <f>E21/E28</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>格力电器</t>
+          <t>中国中免</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>000651</t>
-        </is>
-      </c>
-      <c r="C22" s="23" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="D22" s="24" t="n">
-        <v>400</v>
-      </c>
-      <c r="E22" s="23">
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="C22" s="25" t="n">
+        <v>181.99</v>
+      </c>
+      <c r="D22" s="26" t="n">
+        <v>300</v>
+      </c>
+      <c r="E22" s="25">
         <f>C22*D22</f>
         <v/>
       </c>
-      <c r="F22" s="20">
-        <f>E22/E32</f>
-        <v/>
-      </c>
-      <c r="G22" s="20">
-        <f>SUM(F22:F23)</f>
+      <c r="F22" s="19">
+        <f>E22/E28</f>
+        <v/>
+      </c>
+      <c r="G22" s="19">
+        <f>F22</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>老板电器</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>002508</t>
-        </is>
-      </c>
-      <c r="C23" s="23" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D23" s="24" t="n">
-        <v>300</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>山东药玻</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>600529</t>
+        </is>
+      </c>
+      <c r="C23" s="25" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>800</v>
+      </c>
+      <c r="E23" s="25">
         <f>C23*D23</f>
         <v/>
       </c>
-      <c r="F23" s="20">
-        <f>E23/E32</f>
+      <c r="F23" s="19">
+        <f>E23/E28</f>
+        <v/>
+      </c>
+      <c r="G23" s="19">
+        <f>F23</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>中国中免</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>601888</t>
-        </is>
-      </c>
-      <c r="C24" s="23" t="n">
-        <v>174.26</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <v>300</v>
-      </c>
-      <c r="E24" s="23">
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C24" s="25" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="D24" s="26" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="25">
         <f>C24*D24</f>
         <v/>
       </c>
-      <c r="F24" s="20">
-        <f>E24/E32</f>
-        <v/>
-      </c>
-      <c r="G24" s="20">
-        <f>F24</f>
+      <c r="F24" s="19">
+        <f>E24/E28</f>
+        <v/>
+      </c>
+      <c r="G24" s="22">
+        <f>SUM(F24:F26)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>珠海冠宇</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>688772</t>
-        </is>
-      </c>
-      <c r="C25" s="23" t="n">
-        <v>31.27</v>
-      </c>
-      <c r="D25" s="24" t="n">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>100ETF</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>512910</t>
+        </is>
+      </c>
+      <c r="C25" s="25" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="D25" s="26" t="n">
         <v>500</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="25">
         <f>C25*D25</f>
         <v/>
       </c>
-      <c r="F25" s="20">
-        <f>E25/E32</f>
-        <v/>
-      </c>
-      <c r="G25" s="20">
-        <f>F25</f>
+      <c r="F25" s="19">
+        <f>E25/E28</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>万盛股份</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>603010</t>
-        </is>
-      </c>
-      <c r="C26" s="23" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="D26" s="24" t="n">
-        <v>200</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C26" s="25" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="D26" s="26" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="25">
         <f>C26*D26</f>
         <v/>
       </c>
-      <c r="F26" s="20">
-        <f>E26/E32</f>
-        <v/>
-      </c>
-      <c r="G26" s="20">
-        <f>F26</f>
+      <c r="F26" s="19">
+        <f>E26/E28</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>山东药玻</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>600529</t>
-        </is>
-      </c>
-      <c r="C27" s="23" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="D27" s="24" t="n">
-        <v>400</v>
-      </c>
-      <c r="E27" s="23">
-        <f>C27*D27</f>
-        <v/>
-      </c>
-      <c r="F27" s="20">
-        <f>E27/E32</f>
-        <v/>
-      </c>
-      <c r="G27" s="20">
-        <f>F27</f>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="C27" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>14325.22</v>
+      </c>
+      <c r="F27" s="19">
+        <f>E27/E28</f>
+        <v/>
+      </c>
+      <c r="G27" s="19">
+        <f>SUM(F27)</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>510300</t>
-        </is>
-      </c>
-      <c r="C28" s="23" t="n">
-        <v>4.269</v>
-      </c>
-      <c r="D28" s="24" t="n">
-        <v>3700</v>
-      </c>
-      <c r="E28" s="23">
-        <f>C28*D28</f>
-        <v/>
-      </c>
-      <c r="F28" s="20">
-        <f>E28/E32</f>
-        <v/>
-      </c>
-      <c r="G28" s="18">
-        <f>SUM(F28:F30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>100ETF</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>512910</t>
-        </is>
-      </c>
-      <c r="C29" s="23" t="n">
-        <v>1.229</v>
-      </c>
-      <c r="D29" s="24" t="n">
-        <v>500</v>
-      </c>
-      <c r="E29" s="23">
-        <f>C29*D29</f>
-        <v/>
-      </c>
-      <c r="F29" s="20">
-        <f>E29/E32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>黄金ETF</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>518880</t>
-        </is>
-      </c>
-      <c r="C30" s="23" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="D30" s="24" t="n">
-        <v>4700</v>
-      </c>
-      <c r="E30" s="23">
-        <f>C30*D30</f>
-        <v/>
-      </c>
-      <c r="F30" s="20">
-        <f>E30/E32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="C31" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="23" t="n">
-        <v>22110.71</v>
-      </c>
-      <c r="F31" s="20">
-        <f>E31/E32</f>
-        <v/>
-      </c>
-      <c r="G31" s="20">
-        <f>SUM(F31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E32" s="23">
-        <f>SUM(E2:E31)</f>
-        <v/>
-      </c>
-      <c r="G32" s="20">
-        <f>SUM(G2:G31)</f>
+      <c r="E28" s="25">
+        <f>SUM(E2:E27)</f>
+        <v/>
+      </c>
+      <c r="G28" s="19">
+        <f>SUM(G2:G27)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G22:G23"/>
+  <mergeCells count="5">
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -109,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +149,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -164,26 +170,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
@@ -567,20 +561,20 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
-    <col width="9" customWidth="1" style="26" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
+    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
+    <col width="9" customWidth="1" style="24" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="11"/>
+    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -594,17 +588,17 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="28" t="inlineStr">
+      <c r="D1" s="26" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
@@ -629,13 +623,13 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>44.56</v>
-      </c>
-      <c r="D2" s="26" t="n">
+      <c r="C2" s="23" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <f>C2*D2</f>
         <v/>
       </c>
@@ -659,13 +653,13 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="D3" s="26" t="n">
+      <c r="C3" s="23" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <f>C3*D3</f>
         <v/>
       </c>
@@ -689,13 +683,13 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="23" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>700</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>C4*D4</f>
         <v/>
       </c>
@@ -715,13 +709,13 @@
           <t>000538</t>
         </is>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>76.28</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>300</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="C5" s="23" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>420</v>
+      </c>
+      <c r="E5" s="23">
         <f>C5*D5</f>
         <v/>
       </c>
@@ -741,13 +735,13 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="D6" s="26" t="n">
+      <c r="C6" s="23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D6" s="24" t="n">
         <v>800</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <f>C6*D6</f>
         <v/>
       </c>
@@ -767,13 +761,13 @@
           <t>000963</t>
         </is>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D7" s="26" t="n">
+      <c r="C7" s="23" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>640</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f>C7*D7</f>
         <v/>
       </c>
@@ -793,13 +787,13 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C8" s="25" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="D8" s="26" t="n">
+      <c r="C8" s="23" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D8" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f>C8*D8</f>
         <v/>
       </c>
@@ -819,13 +813,13 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="D9" s="26" t="n">
+      <c r="C9" s="23" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f>C9*D9</f>
         <v/>
       </c>
@@ -845,13 +839,13 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>159.06</v>
-      </c>
-      <c r="D10" s="26" t="n">
+      <c r="C10" s="23" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f>C10*D10</f>
         <v/>
       </c>
@@ -875,13 +869,13 @@
           <t>000858</t>
         </is>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>162.13</v>
-      </c>
-      <c r="D11" s="26" t="n">
+      <c r="C11" s="23" t="n">
+        <v>170.41</v>
+      </c>
+      <c r="D11" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <f>C11*D11</f>
         <v/>
       </c>
@@ -901,13 +895,13 @@
           <t>000568</t>
         </is>
       </c>
-      <c r="C12" s="25" t="n">
-        <v>210.73</v>
-      </c>
-      <c r="D12" s="26" t="n">
+      <c r="C12" s="23" t="n">
+        <v>214.44</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <f>C12*D12</f>
         <v/>
       </c>
@@ -927,13 +921,13 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="D13" s="26" t="n">
+      <c r="C13" s="23" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <v>8400</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f>C13*D13</f>
         <v/>
       </c>
@@ -953,13 +947,13 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C14" s="25" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D14" s="26" t="n">
+      <c r="C14" s="23" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D14" s="24" t="n">
         <v>1568</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <f>C14*D14</f>
         <v/>
       </c>
@@ -983,13 +977,13 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="D15" s="26" t="n">
+      <c r="C15" s="23" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D15" s="24" t="n">
         <v>700</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <f>C15*D15</f>
         <v/>
       </c>
@@ -1009,13 +1003,13 @@
           <t>000895</t>
         </is>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="D16" s="26" t="n">
+      <c r="C16" s="23" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f>C16*D16</f>
         <v/>
       </c>
@@ -1035,13 +1029,13 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="D17" s="26" t="n">
+      <c r="C17" s="23" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <v>600</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <f>C17*D17</f>
         <v/>
       </c>
@@ -1061,13 +1055,13 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C18" s="25" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D18" s="26" t="n">
+      <c r="C18" s="23" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D18" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f>C18*D18</f>
         <v/>
       </c>
@@ -1087,13 +1081,13 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C19" s="25" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="D19" s="26" t="n">
+      <c r="C19" s="23" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="D19" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>C19*D19</f>
         <v/>
       </c>
@@ -1117,13 +1111,13 @@
           <t>002508</t>
         </is>
       </c>
-      <c r="C20" s="25" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D20" s="26" t="n">
+      <c r="C20" s="23" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="D20" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <f>C20*D20</f>
         <v/>
       </c>
@@ -1144,12 +1138,12 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>181.99</v>
-      </c>
-      <c r="D21" s="26" t="n">
+        <v>175.92</v>
+      </c>
+      <c r="D21" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f>C21*D21</f>
         <v/>
       </c>
@@ -1163,23 +1157,23 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="inlineStr">
+      <c r="A22" s="13" t="inlineStr">
         <is>
           <t>山东药玻</t>
         </is>
       </c>
-      <c r="B22" s="24" t="inlineStr">
+      <c r="B22" s="14" t="inlineStr">
         <is>
           <t>600529</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="D22" s="26" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="D22" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>C22*D22</f>
         <v/>
       </c>
@@ -1203,13 +1197,13 @@
           <t>510300</t>
         </is>
       </c>
-      <c r="C23" s="25" t="n">
-        <v>4.015</v>
-      </c>
-      <c r="D23" s="26" t="n">
+      <c r="C23" s="23" t="n">
+        <v>4.083</v>
+      </c>
+      <c r="D23" s="24" t="n">
         <v>1100</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <f>C23*D23</f>
         <v/>
       </c>
@@ -1233,13 +1227,13 @@
           <t>518880</t>
         </is>
       </c>
-      <c r="C24" s="25" t="n">
-        <v>3.942</v>
-      </c>
-      <c r="D24" s="26" t="n">
+      <c r="C24" s="23" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="D24" s="24" t="n">
         <v>1400</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <f>C24*D24</f>
         <v/>
       </c>
@@ -1259,10 +1253,10 @@
           <t>000000</t>
         </is>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="23" t="n">
         <v>10177.72</v>
       </c>
       <c r="F25" s="19">
@@ -1280,7 +1274,7 @@
           <t>合计</t>
         </is>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <f>SUM(E2:E25)</f>
         <v/>
       </c>
@@ -1311,20 +1305,20 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.5" customWidth="1" style="25" min="3" max="3"/>
-    <col width="9" customWidth="1" style="26" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="25" min="5" max="5"/>
+    <col width="9.5" customWidth="1" style="23" min="3" max="3"/>
+    <col width="9" customWidth="1" style="24" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="11"/>
+    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1338,17 +1332,17 @@
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>股价</t>
         </is>
       </c>
-      <c r="D1" s="28" t="inlineStr">
+      <c r="D1" s="26" t="inlineStr">
         <is>
           <t>持仓</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>市值</t>
         </is>
@@ -1373,13 +1367,13 @@
       <c r="B2" s="2" t="n">
         <v>601318</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>44.56</v>
-      </c>
-      <c r="D2" s="26" t="n">
+      <c r="C2" s="23" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <f>C2*D2</f>
         <v/>
       </c>
@@ -1403,13 +1397,13 @@
           <t>600329</t>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="D3" s="26" t="n">
+      <c r="C3" s="23" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>1600</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <f>C3*D3</f>
         <v/>
       </c>
@@ -1433,13 +1427,13 @@
           <t>000423</t>
         </is>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="23" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>1200</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>C4*D4</f>
         <v/>
       </c>
@@ -1459,13 +1453,13 @@
           <t>000538</t>
         </is>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>76.28</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>500</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="C5" s="23" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>700</v>
+      </c>
+      <c r="E5" s="23">
         <f>C5*D5</f>
         <v/>
       </c>
@@ -1485,13 +1479,13 @@
           <t>600332</t>
         </is>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="D6" s="26" t="n">
+      <c r="C6" s="23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D6" s="24" t="n">
         <v>1400</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <f>C6*D6</f>
         <v/>
       </c>
@@ -1511,13 +1505,13 @@
           <t>000963</t>
         </is>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D7" s="26" t="n">
+      <c r="C7" s="23" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>1240</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f>C7*D7</f>
         <v/>
       </c>
@@ -1537,13 +1531,13 @@
           <t>300298</t>
         </is>
       </c>
-      <c r="C8" s="25" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="D8" s="26" t="n">
+      <c r="C8" s="23" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="D8" s="24" t="n">
         <v>800</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f>C8*D8</f>
         <v/>
       </c>
@@ -1563,13 +1557,13 @@
           <t>600161</t>
         </is>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="D9" s="26" t="n">
+      <c r="C9" s="23" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>1700</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f>C9*D9</f>
         <v/>
       </c>
@@ -1589,13 +1583,13 @@
           <t>002304</t>
         </is>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>159.06</v>
-      </c>
-      <c r="D10" s="26" t="n">
+      <c r="C10" s="23" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f>C10*D10</f>
         <v/>
       </c>
@@ -1619,13 +1613,13 @@
           <t>000568</t>
         </is>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>210.73</v>
-      </c>
-      <c r="D11" s="26" t="n">
+      <c r="C11" s="23" t="n">
+        <v>214.44</v>
+      </c>
+      <c r="D11" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <f>C11*D11</f>
         <v/>
       </c>
@@ -1645,13 +1639,13 @@
           <t>000858</t>
         </is>
       </c>
-      <c r="C12" s="25" t="n">
-        <v>162.13</v>
-      </c>
-      <c r="D12" s="26" t="n">
+      <c r="C12" s="23" t="n">
+        <v>170.41</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <f>C12*D12</f>
         <v/>
       </c>
@@ -1671,13 +1665,13 @@
           <t>600809</t>
         </is>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>272</v>
-      </c>
-      <c r="D13" s="26" t="n">
+      <c r="C13" s="23" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f>C13*D13</f>
         <v/>
       </c>
@@ -1697,13 +1691,13 @@
           <t>512690</t>
         </is>
       </c>
-      <c r="C14" s="25" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="D14" s="26" t="n">
+      <c r="C14" s="23" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="D14" s="24" t="n">
         <v>18600</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <f>C14*D14</f>
         <v/>
       </c>
@@ -1723,13 +1717,13 @@
           <t>600305</t>
         </is>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D15" s="26" t="n">
+      <c r="C15" s="23" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D15" s="24" t="n">
         <v>2668</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <f>C15*D15</f>
         <v/>
       </c>
@@ -1753,13 +1747,13 @@
           <t>600887</t>
         </is>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="D16" s="26" t="n">
+      <c r="C16" s="23" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f>C16*D16</f>
         <v/>
       </c>
@@ -1779,13 +1773,13 @@
           <t>000895</t>
         </is>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="D17" s="26" t="n">
+      <c r="C17" s="23" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <v>1300</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <f>C17*D17</f>
         <v/>
       </c>
@@ -1805,13 +1799,13 @@
           <t>002507</t>
         </is>
       </c>
-      <c r="C18" s="25" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="D18" s="26" t="n">
+      <c r="C18" s="23" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="D18" s="24" t="n">
         <v>1100</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f>C18*D18</f>
         <v/>
       </c>
@@ -1831,13 +1825,13 @@
           <t>600298</t>
         </is>
       </c>
-      <c r="C19" s="25" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D19" s="26" t="n">
+      <c r="C19" s="23" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D19" s="24" t="n">
         <v>800</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>C19*D19</f>
         <v/>
       </c>
@@ -1857,13 +1851,13 @@
           <t>000651</t>
         </is>
       </c>
-      <c r="C20" s="25" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="D20" s="26" t="n">
+      <c r="C20" s="23" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="D20" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <f>C20*D20</f>
         <v/>
       </c>
@@ -1887,13 +1881,13 @@
           <t>002508</t>
         </is>
       </c>
-      <c r="C21" s="25" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D21" s="26" t="n">
+      <c r="C21" s="23" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="D21" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f>C21*D21</f>
         <v/>
       </c>
@@ -1913,13 +1907,13 @@
           <t>601888</t>
         </is>
       </c>
-      <c r="C22" s="25" t="n">
-        <v>181.99</v>
-      </c>
-      <c r="D22" s="26" t="n">
+      <c r="C22" s="23" t="n">
+        <v>175.92</v>
+      </c>
+      <c r="D22" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>C22*D22</f>
         <v/>
       </c>
@@ -1943,13 +1937,13 @@
           <t>600529</t>
         </is>
       </c>
-      <c r="C23" s="25" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="D23" s="26" t="n">
+      <c r="C23" s="23" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="D23" s="24" t="n">
         <v>800</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <f>C23*D23</f>
         <v/>
       </c>
@@ -1973,13 +1967,13 @@
           <t>510300</t>
         </is>
       </c>
-      <c r="C24" s="25" t="n">
-        <v>4.015</v>
-      </c>
-      <c r="D24" s="26" t="n">
+      <c r="C24" s="23" t="n">
+        <v>4.083</v>
+      </c>
+      <c r="D24" s="24" t="n">
         <v>3700</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <f>C24*D24</f>
         <v/>
       </c>
@@ -2003,13 +1997,13 @@
           <t>512910</t>
         </is>
       </c>
-      <c r="C25" s="25" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="D25" s="26" t="n">
+      <c r="C25" s="23" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="D25" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <f>C25*D25</f>
         <v/>
       </c>
@@ -2029,13 +2023,13 @@
           <t>518880</t>
         </is>
       </c>
-      <c r="C26" s="25" t="n">
-        <v>3.942</v>
-      </c>
-      <c r="D26" s="26" t="n">
+      <c r="C26" s="23" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="D26" s="24" t="n">
         <v>4700</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <f>C26*D26</f>
         <v/>
       </c>
@@ -2055,10 +2049,10 @@
           <t>000000</t>
         </is>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="23" t="n">
         <v>14325.22</v>
       </c>
       <c r="F27" s="19">
@@ -2076,7 +2070,7 @@
           <t>合计</t>
         </is>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <f>SUM(E2:E27)</f>
         <v/>
       </c>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="个人持仓" sheetId="1" state="visible" r:id="rId1"/>
@@ -140,6 +140,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -148,12 +154,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
@@ -560,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -573,8 +573,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="12"/>
+    <col width="9" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,7 +624,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>44.17</v>
+        <v>46.69</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -643,9 +643,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>中新药业</t>
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>达仁堂</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>22.02</v>
+        <v>24.58</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>31.66</v>
+        <v>36.95</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>700</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>55.61</v>
+        <v>60.39</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>420</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>30.5</v>
+        <v>31.59</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>38.45</v>
+        <v>45.16</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>20.53</v>
+        <v>28.1</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E8" s="23">
         <f>C8*D8</f>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>22.49</v>
+        <v>24.28</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>162.8</v>
+        <v>183.15</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>170.41</v>
+        <v>201.93</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>214.44</v>
+        <v>246.54</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>8400</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>11.66</v>
+        <v>12.9</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>36.6</v>
+        <v>38.95</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>27.36</v>
+        <v>29.3</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>32.05</v>
+        <v>34.52</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>600</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>41.41</v>
+        <v>48.75</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>400</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>31.73</v>
+        <v>33.72</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>30.82</v>
+        <v>36.03</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>175.92</v>
+        <v>232.93</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1157,18 +1157,18 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>山东药玻</t>
         </is>
       </c>
-      <c r="B22" s="14" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>600529</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>25.16</v>
+        <v>27.95</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>4.083</v>
+        <v>4.508</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="23">
         <f>C23*D23</f>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.852</v>
+        <v>3.818</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="23" t="n">
-        <v>10177.72</v>
+        <v>19291.01</v>
       </c>
       <c r="F25" s="19">
         <f>E25/E26</f>
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,8 +1317,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="12"/>
+    <col width="9" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1368,7 +1368,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>44.17</v>
+        <v>46.69</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>300</v>
@@ -1387,9 +1387,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>中新药业</t>
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>达仁堂</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>22.02</v>
+        <v>24.58</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>31.66</v>
+        <v>36.95</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1200</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>55.61</v>
+        <v>60.39</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>700</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>30.5</v>
+        <v>31.59</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>38.45</v>
+        <v>45.16</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>20.53</v>
+        <v>28.1</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E8" s="23">
         <f>C8*D8</f>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>22.49</v>
+        <v>24.28</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1700</v>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>162.8</v>
+        <v>183.15</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>214.44</v>
+        <v>246.54</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>170.41</v>
+        <v>201.93</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>271.6</v>
+        <v>324.8</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E13" s="23">
         <f>C13*D13</f>
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D14" s="24" t="n">
-        <v>18600</v>
+        <v>17600</v>
       </c>
       <c r="E14" s="23">
         <f>C14*D14</f>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>11.66</v>
+        <v>12.9</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>2668</v>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>36.6</v>
+        <v>38.95</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>27.36</v>
+        <v>29.3</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>32.05</v>
+        <v>34.52</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>1100</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>41.41</v>
+        <v>48.75</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>800</v>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>31.73</v>
+        <v>33.72</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>400</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>30.82</v>
+        <v>36.03</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>200</v>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>175.92</v>
+        <v>232.93</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>300</v>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>25.16</v>
+        <v>27.95</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>800</v>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>4.083</v>
+        <v>4.508</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="23">
         <f>C24*D24</f>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>1.179</v>
+        <v>1.305</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>500</v>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>3.852</v>
+        <v>3.818</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>4700</v>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>14325.22</v>
+        <v>28348.7</v>
       </c>
       <c r="F27" s="19">
         <f>E27/E28</f>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -573,8 +573,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="12"/>
-    <col width="9" customWidth="1" style="1" min="13" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="13"/>
+    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,10 +624,10 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>46.69</v>
+        <v>41.84</v>
       </c>
       <c r="D2" s="24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" s="23">
         <f>C2*D2</f>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>24.58</v>
+        <v>22.35</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>36.95</v>
+        <v>35.69</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>700</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>60.39</v>
+        <v>54.67</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>420</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>31.59</v>
+        <v>28.82</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>45.16</v>
+        <v>46.33</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>28.1</v>
+        <v>32.24</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>24.28</v>
+        <v>20.15</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>183.15</v>
+        <v>169.05</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>201.93</v>
+        <v>178.58</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>246.54</v>
+        <v>224</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.838</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>8400</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>12.9</v>
+        <v>11.31</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>38.95</v>
+        <v>35.84</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>29.3</v>
+        <v>26.51</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>34.52</v>
+        <v>32.78</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E17" s="23">
         <f>C17*D17</f>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>48.75</v>
+        <v>44.71</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>400</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>33.72</v>
+        <v>33.01</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>36.03</v>
+        <v>27.61</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>232.93</v>
+        <v>211.7</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>27.95</v>
+        <v>26.63</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>4.508</v>
+        <v>4.238</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.818</v>
+        <v>3.743</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,8 +1317,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="12"/>
-    <col width="9" customWidth="1" style="1" min="13" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="13"/>
+    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1368,10 +1368,10 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>46.69</v>
+        <v>41.84</v>
       </c>
       <c r="D2" s="24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E2" s="23">
         <f>C2*D2</f>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>24.58</v>
+        <v>22.35</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>36.95</v>
+        <v>35.69</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1200</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>60.39</v>
+        <v>54.67</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>700</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>31.59</v>
+        <v>28.82</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>45.16</v>
+        <v>46.33</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>28.1</v>
+        <v>32.24</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>400</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>24.28</v>
+        <v>20.15</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1700</v>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>183.15</v>
+        <v>169.05</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>246.54</v>
+        <v>224</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>201.93</v>
+        <v>178.58</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>324.8</v>
+        <v>271.66</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.838</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>17600</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>12.9</v>
+        <v>11.31</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>2668</v>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>38.95</v>
+        <v>35.84</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>29.3</v>
+        <v>26.51</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>34.52</v>
+        <v>32.78</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E18" s="23">
         <f>C18*D18</f>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>48.75</v>
+        <v>44.71</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>800</v>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>33.72</v>
+        <v>33.01</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>400</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>36.03</v>
+        <v>27.61</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>200</v>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>232.93</v>
+        <v>211.7</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>300</v>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>27.95</v>
+        <v>26.63</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>800</v>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>4.508</v>
+        <v>4.238</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>2800</v>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>1.305</v>
+        <v>1.22</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>500</v>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>3.818</v>
+        <v>3.743</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -33,12 +33,6 @@
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,10 +134,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -561,7 +555,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -573,8 +567,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,7 +618,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>41.84</v>
+        <v>43.7</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -654,7 +648,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>22.35</v>
+        <v>23.78</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -684,7 +678,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>35.69</v>
+        <v>33.69</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>700</v>
@@ -710,10 +704,10 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>54.67</v>
+        <v>51.69</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="E5" s="23">
         <f>C5*D5</f>
@@ -736,7 +730,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>28.82</v>
+        <v>27.27</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -762,7 +756,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>46.33</v>
+        <v>40.96</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -788,7 +782,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>32.24</v>
+        <v>27.46</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -814,7 +808,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>20.15</v>
+        <v>22.28</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -840,7 +834,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>169.05</v>
+        <v>154.41</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -870,7 +864,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>178.58</v>
+        <v>161.84</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -896,7 +890,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>224</v>
+        <v>225.5</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -922,7 +916,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.838</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>8400</v>
@@ -948,7 +942,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>11.31</v>
+        <v>11.95</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -978,7 +972,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>35.84</v>
+        <v>33.9</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1004,7 +998,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>26.51</v>
+        <v>26.38</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1030,7 +1024,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>32.78</v>
+        <v>30.21</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>700</v>
@@ -1056,7 +1050,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>44.71</v>
+        <v>46</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>400</v>
@@ -1082,7 +1076,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>33.01</v>
+        <v>33.02</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1112,7 +1106,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>27.61</v>
+        <v>25</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1138,7 +1132,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>211.7</v>
+        <v>180.31</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1168,7 +1162,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>26.63</v>
+        <v>28.07</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1198,7 +1192,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>4.238</v>
+        <v>4.084</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1228,7 +1222,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.743</v>
+        <v>3.726</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1305,7 +1299,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,8 +1311,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1368,7 +1362,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>41.84</v>
+        <v>43.7</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1398,7 +1392,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>22.35</v>
+        <v>23.78</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1428,7 +1422,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>35.69</v>
+        <v>33.69</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1200</v>
@@ -1454,10 +1448,10 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>54.67</v>
+        <v>51.69</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E5" s="23">
         <f>C5*D5</f>
@@ -1480,7 +1474,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>28.82</v>
+        <v>27.27</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1506,7 +1500,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>46.33</v>
+        <v>40.96</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1532,7 +1526,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>32.24</v>
+        <v>27.46</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>400</v>
@@ -1558,7 +1552,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>20.15</v>
+        <v>22.28</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1700</v>
@@ -1584,7 +1578,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>169.05</v>
+        <v>154.41</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1614,7 +1608,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>224</v>
+        <v>225.5</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1640,7 +1634,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>178.58</v>
+        <v>161.84</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1666,7 +1660,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>271.66</v>
+        <v>288.53</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1692,7 +1686,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.838</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>17600</v>
@@ -1718,7 +1712,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>11.31</v>
+        <v>11.95</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>2668</v>
@@ -1748,10 +1742,10 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>35.84</v>
+        <v>33.9</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E16" s="23">
         <f>C16*D16</f>
@@ -1774,7 +1768,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>26.51</v>
+        <v>26.38</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1800,10 +1794,10 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>32.78</v>
+        <v>30.21</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="23">
         <f>C18*D18</f>
@@ -1826,7 +1820,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>44.71</v>
+        <v>46</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>800</v>
@@ -1852,7 +1846,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>33.01</v>
+        <v>33.02</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>400</v>
@@ -1882,7 +1876,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>27.61</v>
+        <v>25</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>200</v>
@@ -1908,7 +1902,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>211.7</v>
+        <v>180.31</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>300</v>
@@ -1938,7 +1932,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>26.63</v>
+        <v>28.07</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>800</v>
@@ -1968,7 +1962,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>4.238</v>
+        <v>4.084</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>2800</v>
@@ -1998,7 +1992,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>1.22</v>
+        <v>1.174</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>500</v>
@@ -2024,7 +2018,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>3.743</v>
+        <v>3.726</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="个人持仓" sheetId="1" state="visible" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -99,7 +100,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -554,8 +555,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -567,8 +568,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="15"/>
+    <col width="9" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -618,7 +619,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>43.7</v>
+        <v>41.58</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -648,7 +649,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>23.78</v>
+        <v>22.11</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -678,7 +679,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>33.69</v>
+        <v>32.39</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>700</v>
@@ -704,10 +705,10 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>51.69</v>
+        <v>52.35</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="E5" s="23">
         <f>C5*D5</f>
@@ -730,7 +731,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>27.27</v>
+        <v>25.96</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -756,7 +757,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>40.96</v>
+        <v>40.12</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -782,7 +783,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>27.46</v>
+        <v>27.17</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -808,7 +809,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>22.28</v>
+        <v>20.19</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -834,7 +835,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>154.41</v>
+        <v>158.15</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -864,7 +865,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>161.84</v>
+        <v>169.23</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -890,7 +891,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>225.5</v>
+        <v>230.66</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -916,7 +917,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>8400</v>
@@ -942,7 +943,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>11.95</v>
+        <v>11.07</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -972,7 +973,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>33.9</v>
+        <v>32.98</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -998,7 +999,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>26.38</v>
+        <v>24.46</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1024,10 +1025,10 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>30.21</v>
+        <v>27.18</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="23">
         <f>C17*D17</f>
@@ -1050,7 +1051,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>46</v>
+        <v>41.58</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>400</v>
@@ -1076,7 +1077,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>33.02</v>
+        <v>32.43</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1106,7 +1107,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>25</v>
+        <v>22.93</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1132,7 +1133,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>180.31</v>
+        <v>198.25</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1162,7 +1163,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>28.07</v>
+        <v>28.97</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1192,7 +1193,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>4.084</v>
+        <v>3.868</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1222,7 +1223,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.726</v>
+        <v>3.783</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1251,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="23" t="n">
-        <v>19291.01</v>
+        <v>10619.47</v>
       </c>
       <c r="F25" s="19">
         <f>E25/E26</f>
@@ -1298,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1311,8 +1312,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="15"/>
+    <col width="9" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1362,7 +1363,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>43.7</v>
+        <v>41.58</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1392,7 +1393,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>23.78</v>
+        <v>22.11</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1422,7 +1423,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>33.69</v>
+        <v>32.39</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1200</v>
@@ -1448,10 +1449,10 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>51.69</v>
+        <v>52.35</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E5" s="23">
         <f>C5*D5</f>
@@ -1474,7 +1475,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>27.27</v>
+        <v>25.96</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1500,7 +1501,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>40.96</v>
+        <v>40.12</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1526,10 +1527,10 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>27.46</v>
+        <v>27.17</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E8" s="23">
         <f>C8*D8</f>
@@ -1552,10 +1553,10 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>22.28</v>
+        <v>20.19</v>
       </c>
       <c r="D9" s="24" t="n">
-        <v>1700</v>
+        <v>2040</v>
       </c>
       <c r="E9" s="23">
         <f>C9*D9</f>
@@ -1578,7 +1579,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>154.41</v>
+        <v>158.15</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1608,7 +1609,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>225.5</v>
+        <v>230.66</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1634,7 +1635,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>161.84</v>
+        <v>169.23</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1660,7 +1661,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>288.53</v>
+        <v>302.89</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1686,7 +1687,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>17600</v>
@@ -1712,7 +1713,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>11.95</v>
+        <v>11.07</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>2668</v>
@@ -1742,10 +1743,10 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>33.9</v>
+        <v>32.98</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E16" s="23">
         <f>C16*D16</f>
@@ -1768,7 +1769,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>26.38</v>
+        <v>24.46</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1794,10 +1795,10 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>30.21</v>
+        <v>27.18</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E18" s="23">
         <f>C18*D18</f>
@@ -1820,7 +1821,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>46</v>
+        <v>41.58</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>800</v>
@@ -1846,7 +1847,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>33.02</v>
+        <v>32.43</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>400</v>
@@ -1876,7 +1877,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>25</v>
+        <v>22.93</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>200</v>
@@ -1902,7 +1903,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>180.31</v>
+        <v>198.25</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>300</v>
@@ -1932,7 +1933,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>28.07</v>
+        <v>28.97</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>800</v>
@@ -1962,7 +1963,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>4.084</v>
+        <v>3.868</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>2800</v>
@@ -1992,7 +1993,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>1.174</v>
+        <v>1.104</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>500</v>
@@ -2018,7 +2019,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>3.726</v>
+        <v>3.783</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -49,6 +49,12 @@
       <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -556,7 +562,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -568,8 +574,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="15"/>
-    <col width="9" customWidth="1" style="1" min="16" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16"/>
+    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -619,7 +625,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>41.58</v>
+        <v>37.4</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -649,7 +655,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>22.11</v>
+        <v>27.7</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -679,10 +685,10 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>32.39</v>
+        <v>37.78</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E4" s="23">
         <f>C4*D4</f>
@@ -705,7 +711,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>52.35</v>
+        <v>54.67</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>620</v>
@@ -731,7 +737,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>25.96</v>
+        <v>27.91</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -757,7 +763,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>40.12</v>
+        <v>43.58</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -783,7 +789,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>27.17</v>
+        <v>36.46</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -809,7 +815,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>20.19</v>
+        <v>20.9</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -835,7 +841,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>158.15</v>
+        <v>138</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -865,7 +871,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>169.23</v>
+        <v>143.62</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -891,7 +897,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>230.66</v>
+        <v>174.93</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -917,10 +923,10 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.825</v>
+        <v>0.709</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>8400</v>
+        <v>11100</v>
       </c>
       <c r="E13" s="23">
         <f>C13*D13</f>
@@ -943,7 +949,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>11.07</v>
+        <v>10.82</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -973,7 +979,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>32.98</v>
+        <v>27.34</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -999,7 +1005,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>24.46</v>
+        <v>24.18</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1025,10 +1031,10 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>27.18</v>
+        <v>23.75</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="23">
         <f>C17*D17</f>
@@ -1051,10 +1057,10 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>41.58</v>
+        <v>39.59</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E18" s="23">
         <f>C18*D18</f>
@@ -1077,7 +1083,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>32.43</v>
+        <v>29.55</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1107,7 +1113,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>22.93</v>
+        <v>21.69</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1133,7 +1139,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>198.25</v>
+        <v>182.3</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1163,7 +1169,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>28.97</v>
+        <v>28.98</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1193,7 +1199,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>3.868</v>
+        <v>3.737</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1223,7 +1229,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.783</v>
+        <v>3.817</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1252,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="23" t="n">
-        <v>10619.47</v>
+        <v>0</v>
       </c>
       <c r="F25" s="19">
         <f>E25/E26</f>
@@ -1297,10 +1303,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1312,8 +1318,8 @@
     <col width="12.625" customWidth="1" style="23" min="5" max="5"/>
     <col width="13.5" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="15"/>
-    <col width="9" customWidth="1" style="1" min="16" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16"/>
+    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1363,7 +1369,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>41.58</v>
+        <v>37.4</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1373,7 +1379,7 @@
         <v/>
       </c>
       <c r="F2" s="19">
-        <f>E2/E28</f>
+        <f>E2/E29</f>
         <v/>
       </c>
       <c r="G2" s="8">
@@ -1393,7 +1399,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>22.11</v>
+        <v>27.7</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1403,7 +1409,7 @@
         <v/>
       </c>
       <c r="F3" s="19">
-        <f>E3/E28</f>
+        <f>E3/E29</f>
         <v/>
       </c>
       <c r="G3" s="19">
@@ -1423,17 +1429,17 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>32.39</v>
+        <v>37.78</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="23">
         <f>C4*D4</f>
         <v/>
       </c>
       <c r="F4" s="19">
-        <f>E4/E28</f>
+        <f>E4/E29</f>
         <v/>
       </c>
     </row>
@@ -1449,7 +1455,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>52.35</v>
+        <v>54.67</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>900</v>
@@ -1459,7 +1465,7 @@
         <v/>
       </c>
       <c r="F5" s="19">
-        <f>E5/E28</f>
+        <f>E5/E29</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1481,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>25.96</v>
+        <v>27.91</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1485,7 +1491,7 @@
         <v/>
       </c>
       <c r="F6" s="19">
-        <f>E6/E28</f>
+        <f>E6/E29</f>
         <v/>
       </c>
     </row>
@@ -1501,7 +1507,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>40.12</v>
+        <v>43.58</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1511,7 +1517,7 @@
         <v/>
       </c>
       <c r="F7" s="19">
-        <f>E7/E28</f>
+        <f>E7/E29</f>
         <v/>
       </c>
     </row>
@@ -1527,7 +1533,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>27.17</v>
+        <v>36.46</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -1537,7 +1543,7 @@
         <v/>
       </c>
       <c r="F8" s="19">
-        <f>E8/E28</f>
+        <f>E8/E29</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1559,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>20.19</v>
+        <v>20.9</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>2040</v>
@@ -1563,7 +1569,7 @@
         <v/>
       </c>
       <c r="F9" s="19">
-        <f>E9/E28</f>
+        <f>E9/E29</f>
         <v/>
       </c>
     </row>
@@ -1579,7 +1585,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>158.15</v>
+        <v>138</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1589,7 +1595,7 @@
         <v/>
       </c>
       <c r="F10" s="19">
-        <f>E10/E28</f>
+        <f>E10/E29</f>
         <v/>
       </c>
       <c r="G10" s="21">
@@ -1609,7 +1615,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>230.66</v>
+        <v>174.93</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1619,7 +1625,7 @@
         <v/>
       </c>
       <c r="F11" s="19">
-        <f>E11/E28</f>
+        <f>E11/E29</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1641,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>169.23</v>
+        <v>143.62</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1645,7 +1651,7 @@
         <v/>
       </c>
       <c r="F12" s="19">
-        <f>E12/E28</f>
+        <f>E12/E29</f>
         <v/>
       </c>
     </row>
@@ -1661,7 +1667,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>302.89</v>
+        <v>255.91</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1671,7 +1677,7 @@
         <v/>
       </c>
       <c r="F13" s="19">
-        <f>E13/E28</f>
+        <f>E13/E29</f>
         <v/>
       </c>
     </row>
@@ -1687,89 +1693,89 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.825</v>
+        <v>0.709</v>
       </c>
       <c r="D14" s="24" t="n">
-        <v>17600</v>
+        <v>20300</v>
       </c>
       <c r="E14" s="23">
         <f>C14*D14</f>
         <v/>
       </c>
       <c r="F14" s="19">
-        <f>E14/E28</f>
+        <f>E14/E29</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>恒顺醋业</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>600305</t>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>海天味业</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>603288</t>
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>11.07</v>
+        <v>66</v>
       </c>
       <c r="D15" s="24" t="n">
-        <v>2668</v>
+        <v>300</v>
       </c>
       <c r="E15" s="23">
         <f>C15*D15</f>
         <v/>
       </c>
       <c r="F15" s="19">
-        <f>E15/E28</f>
-        <v/>
-      </c>
-      <c r="G15" s="19">
-        <f>SUM(F15:F19)</f>
+        <f>E15/E29</f>
+        <v/>
+      </c>
+      <c r="G15" s="21">
+        <f>SUM(F15:F20)</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>伊利股份</t>
+          <t>恒顺醋业</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>600887</t>
+          <t>600305</t>
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>32.98</v>
+        <v>10.82</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>1300</v>
+        <v>2668</v>
       </c>
       <c r="E16" s="23">
         <f>C16*D16</f>
         <v/>
       </c>
       <c r="F16" s="19">
-        <f>E16/E28</f>
+        <f>E16/E29</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>双汇发展</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>000895</t>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>600887</t>
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>24.46</v>
+        <v>27.34</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1779,171 +1785,167 @@
         <v/>
       </c>
       <c r="F17" s="19">
-        <f>E17/E28</f>
+        <f>E17/E29</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>涪陵榨菜</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>002507</t>
+          <t>双汇发展</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>000895</t>
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>27.18</v>
+        <v>24.18</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E18" s="23">
         <f>C18*D18</f>
         <v/>
       </c>
       <c r="F18" s="19">
-        <f>E18/E28</f>
+        <f>E18/E29</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>安琪酵母</t>
+          <t>涪陵榨菜</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>600298</t>
+          <t>002507</t>
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>41.58</v>
+        <v>23.75</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E19" s="23">
         <f>C19*D19</f>
         <v/>
       </c>
       <c r="F19" s="19">
-        <f>E19/E28</f>
+        <f>E19/E29</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>格力电器</t>
+          <t>安琪酵母</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>000651</t>
+          <t>600298</t>
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>32.43</v>
+        <v>39.59</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E20" s="23">
         <f>C20*D20</f>
         <v/>
       </c>
       <c r="F20" s="19">
-        <f>E20/E28</f>
-        <v/>
-      </c>
-      <c r="G20" s="19">
-        <f>SUM(F20:F21)</f>
+        <f>E20/E29</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>老板电器</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="inlineStr">
-        <is>
-          <t>002508</t>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>000651</t>
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>22.93</v>
+        <v>29.55</v>
       </c>
       <c r="D21" s="24" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E21" s="23">
         <f>C21*D21</f>
         <v/>
       </c>
       <c r="F21" s="19">
-        <f>E21/E28</f>
+        <f>E21/E29</f>
+        <v/>
+      </c>
+      <c r="G21" s="19">
+        <f>SUM(F21:F22)</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>中国中免</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>601888</t>
+          <t>老板电器</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>002508</t>
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>198.25</v>
+        <v>21.69</v>
       </c>
       <c r="D22" s="24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="23">
         <f>C22*D22</f>
         <v/>
       </c>
       <c r="F22" s="19">
-        <f>E22/E28</f>
-        <v/>
-      </c>
-      <c r="G22" s="19">
-        <f>F22</f>
+        <f>E22/E29</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>山东药玻</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>600529</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>中国中免</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>601888</t>
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>28.97</v>
+        <v>182.3</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E23" s="23">
         <f>C23*D23</f>
         <v/>
       </c>
       <c r="F23" s="19">
-        <f>E23/E28</f>
+        <f>E23/E29</f>
         <v/>
       </c>
       <c r="G23" s="19">
@@ -1952,125 +1954,155 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>300ETF</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>510300</t>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>山东药玻</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>600529</t>
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.868</v>
+        <v>28.98</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E24" s="23">
         <f>C24*D24</f>
         <v/>
       </c>
       <c r="F24" s="19">
-        <f>E24/E28</f>
-        <v/>
-      </c>
-      <c r="G24" s="22">
-        <f>SUM(F24:F26)</f>
+        <f>E24/E29</f>
+        <v/>
+      </c>
+      <c r="G24" s="19">
+        <f>F24</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>100ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>512910</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>1.104</v>
+        <v>3.737</v>
       </c>
       <c r="D25" s="24" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="E25" s="23">
         <f>C25*D25</f>
         <v/>
       </c>
       <c r="F25" s="19">
-        <f>E25/E28</f>
+        <f>E25/E29</f>
+        <v/>
+      </c>
+      <c r="G25" s="22">
+        <f>SUM(F25:F27)</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>100ETF</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>512910</t>
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>3.783</v>
+        <v>1.06</v>
       </c>
       <c r="D26" s="24" t="n">
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="E26" s="23">
         <f>C26*D26</f>
         <v/>
       </c>
       <c r="F26" s="19">
-        <f>E26/E28</f>
+        <f>E26/E29</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="D27" s="24" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E27" s="23">
+        <f>C27*D27</f>
+        <v/>
+      </c>
+      <c r="F27" s="19">
+        <f>E27/E29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>000000</t>
         </is>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C28" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="23" t="n">
-        <v>28348.7</v>
-      </c>
-      <c r="F27" s="19">
-        <f>E27/E28</f>
-        <v/>
-      </c>
-      <c r="G27" s="19">
-        <f>SUM(F27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="E28" s="23" t="n">
+        <v>7987.92</v>
+      </c>
+      <c r="F28" s="19">
+        <f>E28/E29</f>
+        <v/>
+      </c>
+      <c r="G28" s="19">
+        <f>SUM(F28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E28" s="23">
-        <f>SUM(E2:E27)</f>
-        <v/>
-      </c>
-      <c r="G28" s="19">
-        <f>SUM(G2:G27)</f>
+      <c r="E29" s="23">
+        <f>SUM(E2:E28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="19">
+        <f>SUM(G2:G28)</f>
         <v/>
       </c>
     </row>
@@ -2078,9 +2110,9 @@
   <mergeCells count="5">
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G15:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -625,7 +625,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>37.4</v>
+        <v>44.95</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>27.7</v>
+        <v>30.74</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>37.78</v>
+        <v>38.74</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>800</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>54.67</v>
+        <v>56.58</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>620</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>27.91</v>
+        <v>29.31</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>43.58</v>
+        <v>41.22</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>36.46</v>
+        <v>33.96</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>20.9</v>
+        <v>22.17</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>138</v>
+        <v>141.38</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>143.62</v>
+        <v>156.86</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>174.93</v>
+        <v>186.01</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.709</v>
+        <v>0.754</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>11100</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>10.82</v>
+        <v>11.55</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>27.34</v>
+        <v>28.85</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>24.18</v>
+        <v>25.26</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>23.75</v>
+        <v>25.27</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>900</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>39.59</v>
+        <v>43.6</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>500</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>29.55</v>
+        <v>32.17</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>21.69</v>
+        <v>25.98</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>182.3</v>
+        <v>197.48</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>28.98</v>
+        <v>29.02</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>3.737</v>
+        <v>3.911</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.817</v>
+        <v>3.944</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1369,7 +1369,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>37.4</v>
+        <v>44.95</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>27.7</v>
+        <v>30.74</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>37.78</v>
+        <v>38.74</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1300</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>54.67</v>
+        <v>56.58</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>900</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>27.91</v>
+        <v>29.31</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>43.58</v>
+        <v>41.22</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>36.46</v>
+        <v>33.96</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>20.9</v>
+        <v>22.17</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>2040</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>138</v>
+        <v>141.38</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>174.93</v>
+        <v>186.01</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>143.62</v>
+        <v>156.86</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>255.91</v>
+        <v>256.05</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.709</v>
+        <v>0.754</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>20300</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>66</v>
+        <v>70.36</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>300</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>10.82</v>
+        <v>11.55</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>2668</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>27.34</v>
+        <v>28.85</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>24.18</v>
+        <v>25.26</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>1300</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>23.75</v>
+        <v>25.27</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>1600</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>39.59</v>
+        <v>43.6</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>900</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>29.55</v>
+        <v>32.17</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>400</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>21.69</v>
+        <v>25.98</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>200</v>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>182.3</v>
+        <v>197.48</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>300</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>28.98</v>
+        <v>29.02</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>800</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>3.737</v>
+        <v>3.911</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>2800</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>500</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>3.817</v>
+        <v>3.944</v>
       </c>
       <c r="D27" s="24" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -625,7 +625,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>44.95</v>
+        <v>47</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>30.74</v>
+        <v>29.1</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>38.74</v>
+        <v>40.7</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>800</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>56.58</v>
+        <v>54.36</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>620</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>29.31</v>
+        <v>29.79</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>41.22</v>
+        <v>46.8</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>33.96</v>
+        <v>33.73</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>22.17</v>
+        <v>23.73</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>141.38</v>
+        <v>160.5</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>156.86</v>
+        <v>180.69</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>186.01</v>
+        <v>224.28</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.754</v>
+        <v>0.85</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>11100</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>11.55</v>
+        <v>12.31</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>28.85</v>
+        <v>31</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>25.26</v>
+        <v>25.93</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>25.27</v>
+        <v>25.77</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>900</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>43.6</v>
+        <v>45.22</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>500</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>32.17</v>
+        <v>32.32</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>25.98</v>
+        <v>27.76</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>197.48</v>
+        <v>216.03</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>29.02</v>
+        <v>28.4</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>3.911</v>
+        <v>3.938</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.944</v>
+        <v>3.986</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1369,7 +1369,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>44.95</v>
+        <v>47</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>30.74</v>
+        <v>29.1</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>38.74</v>
+        <v>40.7</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1300</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>56.58</v>
+        <v>54.36</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>900</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>29.31</v>
+        <v>29.79</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>41.22</v>
+        <v>46.8</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>33.96</v>
+        <v>33.73</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>22.17</v>
+        <v>23.73</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>2040</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>141.38</v>
+        <v>160.5</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>186.01</v>
+        <v>224.28</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>156.86</v>
+        <v>180.69</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>256.05</v>
+        <v>284.99</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.754</v>
+        <v>0.85</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>20300</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>70.36</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>300</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>11.55</v>
+        <v>12.31</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>2668</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>28.85</v>
+        <v>31</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>25.26</v>
+        <v>25.93</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>1300</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>25.27</v>
+        <v>25.77</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>1600</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>43.6</v>
+        <v>45.22</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>900</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>32.17</v>
+        <v>32.32</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>400</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>25.98</v>
+        <v>27.76</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>200</v>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>197.48</v>
+        <v>216.03</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>300</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>29.02</v>
+        <v>28.4</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>800</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>3.911</v>
+        <v>3.938</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>2800</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>1.11</v>
+        <v>1.121</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>500</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>3.944</v>
+        <v>3.986</v>
       </c>
       <c r="D27" s="24" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -625,7 +625,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>47</v>
+        <v>50.98</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>29.1</v>
+        <v>32.13</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>40.7</v>
+        <v>43.99</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>800</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>54.36</v>
+        <v>57.46</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>620</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>29.79</v>
+        <v>30.27</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>46.8</v>
+        <v>47.4</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>33.73</v>
+        <v>36.39</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>23.73</v>
+        <v>23.61</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>160.5</v>
+        <v>175.6</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>180.69</v>
+        <v>209</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>224.28</v>
+        <v>237</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.85</v>
+        <v>0.899</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>11100</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>12.31</v>
+        <v>12.13</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>31</v>
+        <v>32.58</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>25.93</v>
+        <v>25.5</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>25.77</v>
+        <v>26.64</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>900</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>45.22</v>
+        <v>41.58</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>500</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>32.32</v>
+        <v>34.63</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>27.76</v>
+        <v>30.01</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>216.03</v>
+        <v>212.3</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>3.938</v>
+        <v>4.159</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>3.986</v>
+        <v>4.069</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1369,7 +1369,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>47</v>
+        <v>50.98</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>29.1</v>
+        <v>32.13</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>40.7</v>
+        <v>43.99</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1300</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>54.36</v>
+        <v>57.46</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>900</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>29.79</v>
+        <v>30.27</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>46.8</v>
+        <v>47.4</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>33.73</v>
+        <v>36.39</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>23.73</v>
+        <v>23.61</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>2040</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>160.5</v>
+        <v>175.6</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>224.28</v>
+        <v>237</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>180.69</v>
+        <v>209</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>284.99</v>
+        <v>291.55</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.85</v>
+        <v>0.899</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>20300</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>79.59999999999999</v>
+        <v>79.34</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>300</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>12.31</v>
+        <v>12.13</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>2668</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>31</v>
+        <v>32.58</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>25.93</v>
+        <v>25.5</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>1300</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>25.77</v>
+        <v>26.64</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>1600</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>45.22</v>
+        <v>41.58</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>900</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>32.32</v>
+        <v>34.63</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>400</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>27.76</v>
+        <v>30.01</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>200</v>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>216.03</v>
+        <v>212.3</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>300</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>800</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>3.938</v>
+        <v>4.159</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>2800</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>1.121</v>
+        <v>1.217</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>500</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>3.986</v>
+        <v>4.069</v>
       </c>
       <c r="D27" s="24" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -625,7 +625,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>50.98</v>
+        <v>49.99</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>100</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>32.13</v>
+        <v>35.21</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1000</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>43.99</v>
+        <v>48.18</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>800</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>57.46</v>
+        <v>57.48</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>620</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>30.27</v>
+        <v>31.7</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>800</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>47.4</v>
+        <v>47.21</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>640</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>36.39</v>
+        <v>34.4</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>23.61</v>
+        <v>23.26</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>1000</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>175.6</v>
+        <v>173.23</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>100</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>209</v>
+        <v>207.38</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>237</v>
+        <v>255.28</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>0.899</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>11100</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>12.13</v>
+        <v>12.88</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>1568</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>32.58</v>
+        <v>31.12</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>700</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>25.5</v>
+        <v>26.84</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>1000</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>26.64</v>
+        <v>25.86</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>900</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>41.58</v>
+        <v>40.54</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>500</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>34.63</v>
+        <v>36.42</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>300</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>30.01</v>
+        <v>31.4</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>200</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>212.3</v>
+        <v>196.85</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>100</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>28.9</v>
+        <v>29.11</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>4.159</v>
+        <v>4.12</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>200</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>4.069</v>
+        <v>4.029</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>1400</v>
@@ -1286,11 +1286,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G23:G24"/>
     <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G23:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1369,7 +1369,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="23" t="n">
-        <v>50.98</v>
+        <v>49.99</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>200</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C3" s="23" t="n">
-        <v>32.13</v>
+        <v>35.21</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>1600</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C4" s="23" t="n">
-        <v>43.99</v>
+        <v>48.18</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1300</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C5" s="23" t="n">
-        <v>57.46</v>
+        <v>57.48</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>900</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>30.27</v>
+        <v>31.7</v>
       </c>
       <c r="D6" s="24" t="n">
         <v>1400</v>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C7" s="23" t="n">
-        <v>47.4</v>
+        <v>47.21</v>
       </c>
       <c r="D7" s="24" t="n">
         <v>1240</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>36.39</v>
+        <v>34.4</v>
       </c>
       <c r="D8" s="24" t="n">
         <v>200</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="C9" s="23" t="n">
-        <v>23.61</v>
+        <v>23.26</v>
       </c>
       <c r="D9" s="24" t="n">
         <v>2040</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C10" s="23" t="n">
-        <v>175.6</v>
+        <v>173.23</v>
       </c>
       <c r="D10" s="24" t="n">
         <v>300</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="C11" s="23" t="n">
-        <v>237</v>
+        <v>255.28</v>
       </c>
       <c r="D11" s="24" t="n">
         <v>100</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="C12" s="23" t="n">
-        <v>209</v>
+        <v>207.38</v>
       </c>
       <c r="D12" s="24" t="n">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C13" s="23" t="n">
-        <v>291.55</v>
+        <v>284.3</v>
       </c>
       <c r="D13" s="24" t="n">
         <v>140</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C14" s="23" t="n">
-        <v>0.899</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D14" s="24" t="n">
         <v>20300</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C15" s="23" t="n">
-        <v>79.34</v>
+        <v>82.2</v>
       </c>
       <c r="D15" s="24" t="n">
         <v>300</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C16" s="23" t="n">
-        <v>12.13</v>
+        <v>12.88</v>
       </c>
       <c r="D16" s="24" t="n">
         <v>2668</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C17" s="23" t="n">
-        <v>32.58</v>
+        <v>31.12</v>
       </c>
       <c r="D17" s="24" t="n">
         <v>1300</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>25.5</v>
+        <v>26.84</v>
       </c>
       <c r="D18" s="24" t="n">
         <v>1300</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C19" s="23" t="n">
-        <v>26.64</v>
+        <v>25.86</v>
       </c>
       <c r="D19" s="24" t="n">
         <v>1600</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C20" s="23" t="n">
-        <v>41.58</v>
+        <v>40.54</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>900</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C21" s="23" t="n">
-        <v>34.63</v>
+        <v>36.42</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>400</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C22" s="23" t="n">
-        <v>30.01</v>
+        <v>31.4</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>200</v>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C23" s="23" t="n">
-        <v>212.3</v>
+        <v>196.85</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>300</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C24" s="23" t="n">
-        <v>28.9</v>
+        <v>29.11</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>800</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C25" s="23" t="n">
-        <v>4.159</v>
+        <v>4.12</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>2800</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C26" s="23" t="n">
-        <v>1.217</v>
+        <v>1.199</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>500</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>4.069</v>
+        <v>4.029</v>
       </c>
       <c r="D27" s="24" t="n">
         <v>4700</v>
@@ -2108,11 +2108,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G3:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>51.8</v>
+        <v>49.1</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>43.02</v>
+        <v>51.58</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>51.47</v>
+        <v>50.1</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>58.19</v>
+        <v>53.43</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>33.47</v>
+        <v>34.5</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>41.45</v>
+        <v>39.13</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>24.58</v>
+        <v>25.39</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>28.74</v>
+        <v>29.62</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>26.8</v>
+        <v>26.15</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>149.7</v>
+        <v>137.89</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>169</v>
+        <v>167.9</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>226.24</v>
+        <v>212.22</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.84</v>
+        <v>0.781</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>11.39</v>
+        <v>11.06</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>29.56</v>
+        <v>29.76</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>24.95</v>
+        <v>24.67</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>25.79</v>
+        <v>24.27</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>40</v>
+        <v>37.19</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>39.34</v>
+        <v>34.09</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>26.05</v>
+        <v>24.99</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>160.98</v>
+        <v>122.81</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>4.025</v>
+        <v>3.863</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.298</v>
+        <v>4.375</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>51.8</v>
+        <v>49.1</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>43.02</v>
+        <v>51.58</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>51.47</v>
+        <v>50.1</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>58.19</v>
+        <v>53.43</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>33.47</v>
+        <v>34.5</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>41.45</v>
+        <v>39.13</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>24.58</v>
+        <v>25.39</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>28.74</v>
+        <v>29.62</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>26.8</v>
+        <v>26.15</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>149.7</v>
+        <v>137.89</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>226.24</v>
+        <v>212.22</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>169</v>
+        <v>167.9</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>248.46</v>
+        <v>216.13</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.84</v>
+        <v>0.781</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>70.59999999999999</v>
+        <v>50.83</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>11.39</v>
+        <v>11.06</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>29.56</v>
+        <v>29.76</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>24.95</v>
+        <v>24.67</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>25.79</v>
+        <v>24.27</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>40</v>
+        <v>37.19</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>39.34</v>
+        <v>34.09</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>26.05</v>
+        <v>24.99</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>160.98</v>
+        <v>122.81</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>4.025</v>
+        <v>3.863</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.161</v>
+        <v>1.11</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.298</v>
+        <v>4.375</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>49.1</v>
+        <v>46.4</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>51.58</v>
+        <v>44.89</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>50.1</v>
+        <v>53.45</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>53.43</v>
+        <v>52.48</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>34.5</v>
+        <v>31.88</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>39.13</v>
+        <v>43.37</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>25.39</v>
+        <v>27.22</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>29.62</v>
+        <v>27.04</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>26.15</v>
+        <v>27.15</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>137.89</v>
+        <v>131.35</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>167.9</v>
+        <v>163.57</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>212.22</v>
+        <v>209.57</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.781</v>
+        <v>0.764</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>11.06</v>
+        <v>10.86</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>29.76</v>
+        <v>28.32</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>24.67</v>
+        <v>24.49</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>24.27</v>
+        <v>18.31</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>37.19</v>
+        <v>36.21</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>34.09</v>
+        <v>36.51</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>24.99</v>
+        <v>25.29</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>122.81</v>
+        <v>110.53</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>3.863</v>
+        <v>3.882</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.375</v>
+        <v>4.349</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>49.1</v>
+        <v>46.4</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>51.58</v>
+        <v>44.89</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>50.1</v>
+        <v>53.45</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>53.43</v>
+        <v>52.48</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>34.5</v>
+        <v>31.88</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>39.13</v>
+        <v>43.37</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>25.39</v>
+        <v>27.22</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>29.62</v>
+        <v>27.04</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>26.15</v>
+        <v>27.15</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>137.89</v>
+        <v>131.35</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>212.22</v>
+        <v>209.57</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>167.9</v>
+        <v>163.57</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>216.13</v>
+        <v>185.07</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.781</v>
+        <v>0.764</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>50.83</v>
+        <v>46.85</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>11.06</v>
+        <v>10.86</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>29.76</v>
+        <v>28.32</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>24.67</v>
+        <v>24.49</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>24.27</v>
+        <v>18.31</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>37.19</v>
+        <v>36.21</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>34.09</v>
+        <v>36.51</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>24.99</v>
+        <v>25.29</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>122.81</v>
+        <v>110.53</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>3.863</v>
+        <v>3.882</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.11</v>
+        <v>1.118</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.375</v>
+        <v>4.349</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>46.4</v>
+        <v>52.41</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>44.89</v>
+        <v>38.9</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>53.45</v>
+        <v>49.9</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>52.48</v>
+        <v>53.83</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>31.88</v>
+        <v>31.65</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>43.37</v>
+        <v>41.44</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>27.22</v>
+        <v>25.17</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>27.04</v>
+        <v>24.25</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>27.15</v>
+        <v>25.58</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>131.35</v>
+        <v>144.6</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>163.57</v>
+        <v>178.6</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>209.57</v>
+        <v>237.88</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.764</v>
+        <v>0.847</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>10.86</v>
+        <v>11.33</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>28.32</v>
+        <v>28.51</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>24.49</v>
+        <v>25.33</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>18.31</v>
+        <v>18.89</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>36.21</v>
+        <v>37.1</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>36.51</v>
+        <v>38.22</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>25.29</v>
+        <v>28.75</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>110.53</v>
+        <v>124.13</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>3.882</v>
+        <v>4.073</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.349</v>
+        <v>4.406</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>46.4</v>
+        <v>52.41</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>44.89</v>
+        <v>38.9</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>53.45</v>
+        <v>49.9</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>52.48</v>
+        <v>53.83</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>31.88</v>
+        <v>31.65</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>43.37</v>
+        <v>41.44</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>27.22</v>
+        <v>25.17</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>27.04</v>
+        <v>24.25</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>27.15</v>
+        <v>25.58</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>131.35</v>
+        <v>144.6</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>209.57</v>
+        <v>237.88</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>163.57</v>
+        <v>178.6</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>185.07</v>
+        <v>234.57</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.764</v>
+        <v>0.847</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>46.85</v>
+        <v>46.31</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>10.86</v>
+        <v>11.33</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>28.32</v>
+        <v>28.51</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>24.49</v>
+        <v>25.33</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>18.31</v>
+        <v>18.89</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>36.21</v>
+        <v>37.1</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>36.51</v>
+        <v>38.22</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>25.29</v>
+        <v>28.75</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>110.53</v>
+        <v>124.13</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>3.882</v>
+        <v>4.073</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.118</v>
+        <v>1.17</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.349</v>
+        <v>4.406</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>52.41</v>
+        <v>50.2</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>38.9</v>
+        <v>35.38</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>53.83</v>
+        <v>54.5</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>31.65</v>
+        <v>30.93</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>41.44</v>
+        <v>38.26</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>25.17</v>
+        <v>26.6</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>24.25</v>
+        <v>23.79</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>25.58</v>
+        <v>24.72</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>144.6</v>
+        <v>139.53</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>178.6</v>
+        <v>165.72</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>237.88</v>
+        <v>238.08</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.847</v>
+        <v>0.836</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>11.33</v>
+        <v>10.68</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>28.51</v>
+        <v>26.03</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>25.33</v>
+        <v>26.79</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>18.89</v>
+        <v>16.3</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>37.1</v>
+        <v>33.73</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>38.22</v>
+        <v>36.96</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>28.75</v>
+        <v>30.56</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>124.13</v>
+        <v>114.5</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>4.073</v>
+        <v>3.893</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.406</v>
+        <v>4.508</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>52.41</v>
+        <v>50.2</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>38.9</v>
+        <v>35.38</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>53.83</v>
+        <v>54.5</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>31.65</v>
+        <v>30.93</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>41.44</v>
+        <v>38.26</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>25.17</v>
+        <v>26.6</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>24.25</v>
+        <v>23.79</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>25.58</v>
+        <v>24.72</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>144.6</v>
+        <v>139.53</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>237.88</v>
+        <v>238.08</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>178.6</v>
+        <v>165.72</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>234.57</v>
+        <v>258.31</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.847</v>
+        <v>0.836</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>46.31</v>
+        <v>39.99</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>11.33</v>
+        <v>10.68</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>28.51</v>
+        <v>26.03</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>25.33</v>
+        <v>26.79</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>18.89</v>
+        <v>16.3</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>37.1</v>
+        <v>33.73</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>38.22</v>
+        <v>36.96</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>28.75</v>
+        <v>30.56</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>124.13</v>
+        <v>114.5</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>4.073</v>
+        <v>3.893</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.17</v>
+        <v>1.128</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.406</v>
+        <v>4.508</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>50.2</v>
+        <v>50.33</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>35.38</v>
+        <v>33.57</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>50.3</v>
+        <v>48.58</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>54.5</v>
+        <v>53.12</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>30.93</v>
+        <v>30.92</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>38.26</v>
+        <v>40.05</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>26.6</v>
+        <v>26.29</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>23.79</v>
+        <v>25.87</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>24.72</v>
+        <v>25.04</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>139.53</v>
+        <v>133.8</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>165.72</v>
+        <v>159.92</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>238.08</v>
+        <v>227</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.836</v>
+        <v>0.801</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>10.68</v>
+        <v>10.42</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>26.03</v>
+        <v>26.6</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>26.79</v>
+        <v>26.71</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>16.3</v>
+        <v>16.05</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>33.73</v>
+        <v>34.24</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>36.96</v>
+        <v>36.71</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>30.56</v>
+        <v>27.42</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>114.5</v>
+        <v>109.3</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>3.893</v>
+        <v>3.817</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.508</v>
+        <v>4.561</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>50.2</v>
+        <v>50.33</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>35.38</v>
+        <v>33.57</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>50.3</v>
+        <v>48.58</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>54.5</v>
+        <v>53.12</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>30.93</v>
+        <v>30.92</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>38.26</v>
+        <v>40.05</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>26.6</v>
+        <v>26.29</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>23.79</v>
+        <v>25.87</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>24.72</v>
+        <v>25.04</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>139.53</v>
+        <v>133.8</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>238.08</v>
+        <v>227</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>165.72</v>
+        <v>159.92</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>258.31</v>
+        <v>246.31</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.836</v>
+        <v>0.801</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>39.99</v>
+        <v>39.3</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>10.68</v>
+        <v>10.42</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>26.03</v>
+        <v>26.6</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>26.79</v>
+        <v>26.71</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>16.3</v>
+        <v>16.05</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>33.73</v>
+        <v>34.24</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>36.96</v>
+        <v>36.71</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>30.56</v>
+        <v>27.42</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>114.5</v>
+        <v>109.3</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>3.893</v>
+        <v>3.817</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.128</v>
+        <v>1.1</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.508</v>
+        <v>4.561</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>50.33</v>
+        <v>47.68</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>33.57</v>
+        <v>31.77</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>48.58</v>
+        <v>47.58</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>53.12</v>
+        <v>52.09</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>30.92</v>
+        <v>30.67</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>40.05</v>
+        <v>42.1</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>26.29</v>
+        <v>28.54</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>25.87</v>
+        <v>26.18</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>25.04</v>
+        <v>27.52</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>133.8</v>
+        <v>119.12</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>159.92</v>
+        <v>150.41</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>227</v>
+        <v>203.84</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.801</v>
+        <v>0.74</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>10.42</v>
+        <v>10.11</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>26.6</v>
+        <v>26.85</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>26.71</v>
+        <v>26.1</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>16.05</v>
+        <v>15.46</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>34.24</v>
+        <v>33.58</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>36.71</v>
+        <v>34.79</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>27.42</v>
+        <v>25.12</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>109.3</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>3.817</v>
+        <v>3.705</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.561</v>
+        <v>4.48</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>50.33</v>
+        <v>47.68</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>33.57</v>
+        <v>31.77</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>48.58</v>
+        <v>47.58</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>53.12</v>
+        <v>52.09</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>30.92</v>
+        <v>30.67</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>40.05</v>
+        <v>42.1</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>26.29</v>
+        <v>28.54</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>25.87</v>
+        <v>26.18</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>25.04</v>
+        <v>27.52</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>133.8</v>
+        <v>119.12</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>227</v>
+        <v>203.84</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>159.92</v>
+        <v>150.41</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>246.31</v>
+        <v>229.4</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.801</v>
+        <v>0.74</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>39.3</v>
+        <v>36.48</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>10.42</v>
+        <v>10.11</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>26.6</v>
+        <v>26.85</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>26.71</v>
+        <v>26.1</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>16.05</v>
+        <v>15.46</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>34.24</v>
+        <v>33.58</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>36.71</v>
+        <v>34.79</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>27.42</v>
+        <v>25.12</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>109.3</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>3.817</v>
+        <v>3.705</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.1</v>
+        <v>1.066</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.561</v>
+        <v>4.48</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>47.68</v>
+        <v>40.3</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>31.77</v>
+        <v>33.65</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>47.58</v>
+        <v>49.32</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>52.09</v>
+        <v>49.15</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>30.67</v>
+        <v>28.6</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>42.1</v>
+        <v>41.46</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>28.54</v>
+        <v>25.6</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>26.18</v>
+        <v>30.4</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>27.52</v>
+        <v>30.94</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>119.12</v>
+        <v>109.9</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>150.41</v>
+        <v>140.31</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>203.84</v>
+        <v>179.42</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.74</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>10.11</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>26.85</v>
+        <v>26.75</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>26.1</v>
+        <v>26.71</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>15.46</v>
+        <v>14.29</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>33.58</v>
+        <v>35.18</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>34.79</v>
+        <v>32.17</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>25.12</v>
+        <v>21.78</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>95.93000000000001</v>
+        <v>83.69</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>3.705</v>
+        <v>3.499</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.48</v>
+        <v>4.648</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>47.68</v>
+        <v>40.3</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>31.77</v>
+        <v>33.65</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>47.58</v>
+        <v>49.32</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>52.09</v>
+        <v>49.15</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>30.67</v>
+        <v>28.6</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>42.1</v>
+        <v>41.46</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>28.54</v>
+        <v>25.6</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>26.18</v>
+        <v>30.4</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>27.52</v>
+        <v>30.94</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>119.12</v>
+        <v>109.9</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>203.84</v>
+        <v>179.42</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>150.41</v>
+        <v>140.31</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>229.4</v>
+        <v>230.73</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.74</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>36.48</v>
+        <v>37.95</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>10.11</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>26.85</v>
+        <v>26.75</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>26.1</v>
+        <v>26.71</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>15.46</v>
+        <v>14.29</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>33.58</v>
+        <v>35.18</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>34.79</v>
+        <v>32.17</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>25.12</v>
+        <v>21.78</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>95.93000000000001</v>
+        <v>83.69</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>3.705</v>
+        <v>3.499</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>1.066</v>
+        <v>0.865</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.48</v>
+        <v>4.648</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>

--- a/账户明细.xlsx
+++ b/账户明细.xlsx
@@ -607,7 +607,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>40.3</v>
+        <v>42.78</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>100</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>33.65</v>
+        <v>29.17</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>800</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>49.32</v>
+        <v>57.8</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>700</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>49.15</v>
+        <v>49.42</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>720</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>28.6</v>
+        <v>29.08</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>600</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>41.46</v>
+        <v>31.68</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>640</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>25.6</v>
+        <v>26.22</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>200</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>30.4</v>
+        <v>24.51</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>30.94</v>
+        <v>29.5</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>1200</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>109.9</v>
+        <v>98.5</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>100</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>140.31</v>
+        <v>133.59</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>179.42</v>
+        <v>153.66</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.641</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>12700</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>9.210000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>1568</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>26.75</v>
+        <v>28.18</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>900</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>26.71</v>
+        <v>28.57</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>800</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>14.29</v>
+        <v>14.09</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1000</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>35.18</v>
+        <v>33.92</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>600</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>32.17</v>
+        <v>36.14</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>300</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>21.78</v>
+        <v>23.29</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>83.69</v>
+        <v>84.45</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>100</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>3.499</v>
+        <v>3.362</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>4.648</v>
+        <v>4.662</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>1400</v>
@@ -1352,7 +1352,7 @@
         <v>601318</v>
       </c>
       <c r="C2" s="20" t="n">
-        <v>40.3</v>
+        <v>42.78</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>200</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="C3" s="20" t="n">
-        <v>33.65</v>
+        <v>29.17</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>1400</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C4" s="20" t="n">
-        <v>49.32</v>
+        <v>57.8</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1200</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C5" s="20" t="n">
-        <v>49.15</v>
+        <v>49.42</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>900</v>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="C6" s="20" t="n">
-        <v>28.6</v>
+        <v>29.08</v>
       </c>
       <c r="D6" s="21" t="n">
         <v>1000</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" s="20" t="n">
-        <v>41.46</v>
+        <v>31.68</v>
       </c>
       <c r="D7" s="21" t="n">
         <v>1240</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C8" s="20" t="n">
-        <v>25.6</v>
+        <v>26.22</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>900</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C9" s="20" t="n">
-        <v>30.4</v>
+        <v>24.51</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>200</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C10" s="20" t="n">
-        <v>30.94</v>
+        <v>29.5</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>2040</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C11" s="20" t="n">
-        <v>109.9</v>
+        <v>98.5</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>300</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" s="20" t="n">
-        <v>179.42</v>
+        <v>153.66</v>
       </c>
       <c r="D12" s="21" t="n">
         <v>100</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C13" s="20" t="n">
-        <v>140.31</v>
+        <v>133.59</v>
       </c>
       <c r="D13" s="21" t="n">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C14" s="20" t="n">
-        <v>230.73</v>
+        <v>225.2</v>
       </c>
       <c r="D14" s="21" t="n">
         <v>140</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.641</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>21900</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C16" s="20" t="n">
-        <v>37.95</v>
+        <v>37.36</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>400</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C17" s="20" t="n">
-        <v>9.210000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="D17" s="21" t="n">
         <v>2668</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C18" s="20" t="n">
-        <v>26.75</v>
+        <v>28.18</v>
       </c>
       <c r="D18" s="21" t="n">
         <v>1500</v>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C19" s="20" t="n">
-        <v>26.71</v>
+        <v>28.57</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>1400</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C20" s="20" t="n">
-        <v>14.29</v>
+        <v>14.09</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>1800</v>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C21" s="20" t="n">
-        <v>35.18</v>
+        <v>33.92</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>1100</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C22" s="20" t="n">
-        <v>32.17</v>
+        <v>36.14</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>400</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C23" s="20" t="n">
-        <v>21.78</v>
+        <v>23.29</v>
       </c>
       <c r="D23" s="21" t="n">
         <v>200</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C24" s="20" t="n">
-        <v>83.69</v>
+        <v>84.45</v>
       </c>
       <c r="D24" s="21" t="n">
         <v>300</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C25" s="20" t="n">
-        <v>3.499</v>
+        <v>3.362</v>
       </c>
       <c r="D25" s="21" t="n">
         <v>2800</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C26" s="20" t="n">
-        <v>0.865</v>
+        <v>0.853</v>
       </c>
       <c r="D26" s="21" t="n">
         <v>500</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C27" s="20" t="n">
-        <v>4.648</v>
+        <v>4.662</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>4700</v>
